--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3214775.3</v>
+        <v>8346135.02</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114813.4</v>
+        <v>203564.27</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94033.89</v>
+        <v>105297</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89445.2</v>
+        <v>59971.23</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185220.5</v>
+        <v>155227.84</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167051.76</v>
+        <v>173563.09</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174324.39</v>
+        <v>174305.73</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129369.16</v>
+        <v>129434.01</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82394.71000000001</v>
+        <v>82291.89999999999</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>515442.39</v>
+        <v>529297.52</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59485.87</v>
+        <v>109188.92</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106582.62</v>
+        <v>95046.83</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241092.71</v>
+        <v>246451.68</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35664.29</v>
+        <v>35900.86</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>534034.3</v>
+        <v>533917.87</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26001.46</v>
+        <v>25922.49</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80607.89</v>
+        <v>77633.94</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84215.39999999999</v>
+        <v>83633.27</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80680.64999999999</v>
+        <v>80569.48</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97108.45</v>
+        <v>97277.61</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53937.4</v>
+        <v>53898.83</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11620.68</v>
+        <v>13161.83</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5978.06</v>
+        <v>6013.1</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146927.02</v>
+        <v>162717.92</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9932.389999999999</v>
+        <v>14596.59</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4081.15</v>
+        <v>4063.44</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172019.04</v>
+        <v>172127.71</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15273.63</v>
+        <v>15305</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1064.52</v>
+        <v>1064.93</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,137 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11185.77</v>
+        <v>11146.36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>239580.19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>55486.75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>281659.03</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8322.799999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5751.09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1219126.73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3500.08</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2254892.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>15002.88</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>194.52</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1064.93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>145801.64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>866724.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,35 +439,49 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8346135.02</v>
+        <v>162717.92</v>
+      </c>
+      <c r="C2" t="n">
+        <v>162595.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203564.27</v>
+        <v>105297</v>
+      </c>
+      <c r="C3" t="n">
+        <v>105900.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105297</v>
+        <v>14596.59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14549.89</v>
       </c>
     </row>
     <row r="5">
@@ -479,6 +493,9 @@
       <c r="B5" t="n">
         <v>59971.23</v>
       </c>
+      <c r="C5" t="n">
+        <v>59812.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -489,115 +506,149 @@
       <c r="B6" t="n">
         <v>155227.84</v>
       </c>
+      <c r="C6" t="n">
+        <v>155546.84</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173563.09</v>
+        <v>3500.08</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3508.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174305.73</v>
+        <v>2254892.85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2254534.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129434.01</v>
+        <v>4063.44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4047.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82291.89999999999</v>
+        <v>173563.09</v>
+      </c>
+      <c r="C10" t="n">
+        <v>173253.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>529297.52</v>
-      </c>
+        <v>174305.73</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109188.92</v>
+        <v>239580.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>239473.66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95046.83</v>
+        <v>129434.01</v>
+      </c>
+      <c r="C13" t="n">
+        <v>129884.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>246451.68</v>
+        <v>82291.89999999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>82377.64999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35900.86</v>
+        <v>55486.75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>55062.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>533917.87</v>
+        <v>281659.03</v>
+      </c>
+      <c r="C16" t="n">
+        <v>281730.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25922.49</v>
+        <v>15002.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14993.7</v>
       </c>
     </row>
     <row r="18">
@@ -609,6 +660,9 @@
       <c r="B18" t="n">
         <v>77633.94</v>
       </c>
+      <c r="C18" t="n">
+        <v>85623.34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -619,255 +673,344 @@
       <c r="B19" t="n">
         <v>83633.27</v>
       </c>
+      <c r="C19" t="n">
+        <v>84223.53999999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80569.48</v>
+        <v>529297.52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>543283.66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97277.61</v>
+        <v>109188.92</v>
+      </c>
+      <c r="C21" t="n">
+        <v>109272.56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53898.83</v>
+        <v>172127.71</v>
+      </c>
+      <c r="C22" t="n">
+        <v>171937.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>13161.83</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>2176293.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6013.1</v>
+        <v>15305</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15344.86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162717.92</v>
+        <v>194.52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>207.54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14596.59</v>
+        <v>95046.83</v>
+      </c>
+      <c r="C26" t="n">
+        <v>85120.96000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4063.44</v>
+        <v>246451.68</v>
+      </c>
+      <c r="C27" t="n">
+        <v>246682.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172127.71</v>
+        <v>13161.83</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13156.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15305</v>
+        <v>1064.93</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1515.67</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1064.93</v>
       </c>
+      <c r="C30" t="n">
+        <v>1515.67</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11146.36</v>
+        <v>8322.799999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8237.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>239580.19</v>
+        <v>5751.09</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5651.52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55486.75</v>
+        <v>11146.36</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11156.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>281659.03</v>
+        <v>80569.48</v>
+      </c>
+      <c r="C34" t="n">
+        <v>80672.07000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8322.799999999999</v>
+        <v>97277.61</v>
+      </c>
+      <c r="C35" t="n">
+        <v>97188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5751.09</v>
+        <v>6013.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13909.42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1219126.73</v>
+        <v>35900.86</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35865.85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3500.08</v>
+        <v>25922.49</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25897.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2254892.85</v>
+        <v>533917.87</v>
+      </c>
+      <c r="C39" t="n">
+        <v>627484.72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15002.88</v>
+        <v>145801.64</v>
+      </c>
+      <c r="C40" t="n">
+        <v>144671</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.52</v>
+        <v>866724.55</v>
+      </c>
+      <c r="C41" t="n">
+        <v>867068.76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1064.93</v>
+        <v>1219126.73</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1265925.81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145801.64</v>
+        <v>53898.83</v>
+      </c>
+      <c r="C43" t="n">
+        <v>53884.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>866724.55</v>
+        <v>203564.27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>256318.59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8346135.02</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10509062.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,445 +439,582 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10729399.19</v>
+        <v>162595.14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>175154.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255461.89</v>
+        <v>105900.95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>106013.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162595.14</v>
+        <v>14549.89</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19650.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105900.95</v>
+        <v>59812.55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60176.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14549.89</v>
+        <v>155546.84</v>
+      </c>
+      <c r="C6" t="n">
+        <v>155895.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59812.55</v>
+        <v>47547.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47583.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>155546.84</v>
+        <v>3508.12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3526.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47547.14</v>
+        <v>2254534.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2253545.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3508.12</v>
+        <v>4047.73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4047.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2254534.9</v>
+        <v>173253.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>167767.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4047.73</v>
+        <v>174305.59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>174378.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173253.59</v>
+        <v>239473.66</v>
+      </c>
+      <c r="C13" t="n">
+        <v>239553.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174305.59</v>
+        <v>129884.71</v>
+      </c>
+      <c r="C14" t="n">
+        <v>129433.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>239473.66</v>
+        <v>82377.64999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82323.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129884.71</v>
+        <v>55062.08</v>
+      </c>
+      <c r="C16" t="n">
+        <v>55161.26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82377.64999999999</v>
+        <v>281730.16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>267338.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>55062.08</v>
+        <v>14993.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15668.44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>281730.16</v>
+        <v>85623.34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>85689.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14993.7</v>
+        <v>84223.53999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>83968.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>85623.34</v>
+        <v>543283.66</v>
+      </c>
+      <c r="C21" t="n">
+        <v>543843.1899999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84223.53999999999</v>
+        <v>109272.56</v>
+      </c>
+      <c r="C22" t="n">
+        <v>109035.91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>543283.66</v>
+        <v>171937.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>171878.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109272.56</v>
+        <v>2176293.29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2128678.99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171937.25</v>
+        <v>15344.86</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15357.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2176293.29</v>
+        <v>207.54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>209.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15344.86</v>
+        <v>85120.96000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>85281.75999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>207.54</v>
+        <v>246682.29</v>
+      </c>
+      <c r="C28" t="n">
+        <v>246972.87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85120.96000000001</v>
+        <v>13156.36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>13822.98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>246682.29</v>
+        <v>1515.67</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1523.69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13156.36</v>
+        <v>8237.93</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8365.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1515.67</v>
+        <v>5651.52</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5755.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8237.93</v>
+        <v>11156.19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11149.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5651.52</v>
+        <v>80672.07000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>80810.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11156.19</v>
+        <v>97188</v>
+      </c>
+      <c r="C35" t="n">
+        <v>97435.21000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>80672.07000000001</v>
+        <v>13909.42</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14034.81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97188</v>
+        <v>35865.85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35784.66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13909.42</v>
+        <v>25897.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25903.55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35865.85</v>
+        <v>627484.72</v>
+      </c>
+      <c r="C39" t="n">
+        <v>627541.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25897.3</v>
+        <v>144671</v>
+      </c>
+      <c r="C40" t="n">
+        <v>146035.78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>627484.72</v>
+        <v>867068.76</v>
+      </c>
+      <c r="C41" t="n">
+        <v>866934.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>144671</v>
+        <v>1265925.81</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1267114.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>867068.76</v>
+        <v>53884.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>53940.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265925.81</v>
+        <v>255461.89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>254387.78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53884.9</v>
+        <v>10729399.19</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10684286.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -610,9 +610,7 @@
       <c r="B14" t="n">
         <v>129884.71</v>
       </c>
-      <c r="C14" t="n">
-        <v>129433.53</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +621,7 @@
       <c r="B15" t="n">
         <v>82377.64999999999</v>
       </c>
-      <c r="C15" t="n">
-        <v>82323.89</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -636,9 +632,7 @@
       <c r="B16" t="n">
         <v>55062.08</v>
       </c>
-      <c r="C16" t="n">
-        <v>55161.26</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -649,9 +643,7 @@
       <c r="B17" t="n">
         <v>281730.16</v>
       </c>
-      <c r="C17" t="n">
-        <v>267338.69</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -662,9 +654,7 @@
       <c r="B18" t="n">
         <v>14993.7</v>
       </c>
-      <c r="C18" t="n">
-        <v>15668.44</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +665,7 @@
       <c r="B19" t="n">
         <v>85623.34</v>
       </c>
-      <c r="C19" t="n">
-        <v>85689.87</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +676,7 @@
       <c r="B20" t="n">
         <v>84223.53999999999</v>
       </c>
-      <c r="C20" t="n">
-        <v>83968.55</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +687,7 @@
       <c r="B21" t="n">
         <v>543283.66</v>
       </c>
-      <c r="C21" t="n">
-        <v>543843.1899999999</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -870,9 +854,7 @@
       <c r="B34" t="n">
         <v>80672.07000000001</v>
       </c>
-      <c r="C34" t="n">
-        <v>80810.25</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1001,7 +983,7 @@
         <v>255461.89</v>
       </c>
       <c r="C44" t="n">
-        <v>254387.78</v>
+        <v>283031.79</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +996,7 @@
         <v>10729399.19</v>
       </c>
       <c r="C45" t="n">
-        <v>10684286.86</v>
+        <v>9340049.189999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162595.14</v>
+        <v>136960.39</v>
       </c>
       <c r="C2" t="n">
-        <v>175154.2</v>
+        <v>137006.78</v>
       </c>
       <c r="D2" t="n">
-        <v>188161.29</v>
+        <v>139878.99</v>
       </c>
       <c r="E2" t="n">
-        <v>187889.64</v>
+        <v>137047.54</v>
       </c>
       <c r="F2" t="n">
-        <v>188446.39</v>
+        <v>147139.97</v>
       </c>
       <c r="G2" t="n">
-        <v>188049.01</v>
-      </c>
-      <c r="H2" t="n">
-        <v>198217.62</v>
-      </c>
-      <c r="I2" t="n">
-        <v>185369.66</v>
-      </c>
-      <c r="J2" t="n">
-        <v>185428.46</v>
-      </c>
-      <c r="K2" t="n">
-        <v>185097.73</v>
-      </c>
-      <c r="L2" t="n">
-        <v>137210.96</v>
-      </c>
-      <c r="M2" t="n">
-        <v>136960.39</v>
+        <v>147078.15</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105900.95</v>
+        <v>106029.47</v>
       </c>
       <c r="C3" t="n">
-        <v>106013.87</v>
+        <v>105343.33</v>
       </c>
       <c r="D3" t="n">
-        <v>106021.72</v>
+        <v>107807.91</v>
       </c>
       <c r="E3" t="n">
-        <v>105383.84</v>
+        <v>106143.94</v>
       </c>
       <c r="F3" t="n">
-        <v>105686.62</v>
+        <v>105682.06</v>
       </c>
       <c r="G3" t="n">
-        <v>105879.99</v>
-      </c>
-      <c r="H3" t="n">
-        <v>105617.37</v>
-      </c>
-      <c r="I3" t="n">
-        <v>105609.23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>105916.21</v>
-      </c>
-      <c r="K3" t="n">
-        <v>105434.82</v>
-      </c>
-      <c r="L3" t="n">
-        <v>105471.58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>106029.47</v>
+        <v>118469.16</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14549.89</v>
+        <v>19598.71</v>
       </c>
       <c r="C4" t="n">
-        <v>19650.54</v>
+        <v>19612.12</v>
       </c>
       <c r="D4" t="n">
-        <v>19573.92</v>
+        <v>20003.67</v>
       </c>
       <c r="E4" t="n">
-        <v>19622.01</v>
+        <v>19611.39</v>
       </c>
       <c r="F4" t="n">
-        <v>19569.24</v>
+        <v>19548.4</v>
       </c>
       <c r="G4" t="n">
-        <v>19541.27</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19544.28</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19529.18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19542.07</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19598.04</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19549.07</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19598.71</v>
+        <v>19545.17</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59812.55</v>
+        <v>60166.94</v>
       </c>
       <c r="C5" t="n">
-        <v>60176.39</v>
+        <v>60244.36</v>
       </c>
       <c r="D5" t="n">
-        <v>59975.41</v>
+        <v>61211.68</v>
       </c>
       <c r="E5" t="n">
-        <v>60029.71</v>
+        <v>59966.49</v>
       </c>
       <c r="F5" t="n">
-        <v>60127.86</v>
+        <v>59821.96</v>
       </c>
       <c r="G5" t="n">
-        <v>60130.12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59894.66</v>
-      </c>
-      <c r="I5" t="n">
-        <v>59911.21</v>
-      </c>
-      <c r="J5" t="n">
-        <v>60180.27</v>
-      </c>
-      <c r="K5" t="n">
-        <v>59824.52</v>
-      </c>
-      <c r="L5" t="n">
-        <v>59921.46</v>
-      </c>
-      <c r="M5" t="n">
-        <v>60166.94</v>
+        <v>59884.79</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155546.84</v>
+        <v>113891.06</v>
       </c>
       <c r="C6" t="n">
-        <v>155895.1</v>
+        <v>113678.55</v>
       </c>
       <c r="D6" t="n">
-        <v>155849</v>
+        <v>90823.02</v>
       </c>
       <c r="E6" t="n">
-        <v>155748.42</v>
+        <v>88622.08</v>
       </c>
       <c r="F6" t="n">
-        <v>155038.93</v>
+        <v>89403.09</v>
       </c>
       <c r="G6" t="n">
-        <v>156003.03</v>
-      </c>
-      <c r="H6" t="n">
-        <v>155329.96</v>
-      </c>
-      <c r="I6" t="n">
-        <v>113807.71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>113671.28</v>
-      </c>
-      <c r="K6" t="n">
-        <v>113510.09</v>
-      </c>
-      <c r="L6" t="n">
-        <v>113543.95</v>
-      </c>
-      <c r="M6" t="n">
-        <v>113891.06</v>
+        <v>88930.64</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47547.14</v>
+        <v>52514.41</v>
       </c>
       <c r="C7" t="n">
-        <v>47583.01</v>
+        <v>52639.67</v>
       </c>
       <c r="D7" t="n">
-        <v>52577.63</v>
+        <v>53688.42</v>
       </c>
       <c r="E7" t="n">
-        <v>52663.05</v>
+        <v>52825.76</v>
       </c>
       <c r="F7" t="n">
-        <v>52637.31</v>
+        <v>52688.66</v>
       </c>
       <c r="G7" t="n">
-        <v>52559.33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>52733.99</v>
-      </c>
-      <c r="I7" t="n">
-        <v>52580.29</v>
-      </c>
-      <c r="J7" t="n">
-        <v>52734.28</v>
-      </c>
-      <c r="K7" t="n">
-        <v>52641.61</v>
-      </c>
-      <c r="L7" t="n">
-        <v>52821.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>52514.41</v>
+        <v>52668.63</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3508.12</v>
+        <v>3463.36</v>
       </c>
       <c r="C8" t="n">
-        <v>3526.11</v>
+        <v>3478.26</v>
       </c>
       <c r="D8" t="n">
-        <v>3501.35</v>
+        <v>3576.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3478.16</v>
+        <v>3499.05</v>
       </c>
       <c r="F8" t="n">
-        <v>3468.24</v>
+        <v>3522.52</v>
       </c>
       <c r="G8" t="n">
-        <v>3484.78</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3529.23</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3523.24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3533.32</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3510.39</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3537.14</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3463.36</v>
+        <v>3497.43</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2254534.9</v>
+        <v>2253337.71</v>
       </c>
       <c r="C9" t="n">
-        <v>2253545.88</v>
+        <v>2252215.49</v>
       </c>
       <c r="D9" t="n">
-        <v>2253712.06</v>
+        <v>2303295.92</v>
       </c>
       <c r="E9" t="n">
-        <v>2254583.86</v>
+        <v>2253997.84</v>
       </c>
       <c r="F9" t="n">
-        <v>2254129.98</v>
+        <v>2260137.51</v>
       </c>
       <c r="G9" t="n">
-        <v>2254436.59</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2254506.91</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2252618.79</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2252745.89</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2253100.36</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2253758.82</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2253337.71</v>
+        <v>2261821.93</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4047.73</v>
+        <v>487.88</v>
       </c>
       <c r="C10" t="n">
-        <v>4047.65</v>
+        <v>487.86</v>
       </c>
       <c r="D10" t="n">
-        <v>4041.51</v>
+        <v>503.18</v>
       </c>
       <c r="E10" t="n">
-        <v>4067.34</v>
+        <v>490.43</v>
       </c>
       <c r="F10" t="n">
-        <v>4060.98</v>
+        <v>487.69</v>
       </c>
       <c r="G10" t="n">
-        <v>4061.31</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4055.26</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4057.79</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4066.81</v>
-      </c>
-      <c r="K10" t="n">
-        <v>489.48</v>
-      </c>
-      <c r="L10" t="n">
-        <v>491.57</v>
-      </c>
-      <c r="M10" t="n">
-        <v>487.88</v>
+        <v>489.8</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173253.59</v>
+        <v>169278.4</v>
       </c>
       <c r="C11" t="n">
-        <v>167767.16</v>
+        <v>164042.25</v>
       </c>
       <c r="D11" t="n">
-        <v>168415.99</v>
+        <v>154904.56</v>
       </c>
       <c r="E11" t="n">
-        <v>181919.6</v>
+        <v>127110.2</v>
       </c>
       <c r="F11" t="n">
-        <v>182528.74</v>
+        <v>126968.21</v>
       </c>
       <c r="G11" t="n">
-        <v>181887.77</v>
-      </c>
-      <c r="H11" t="n">
-        <v>182253.28</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181810.07</v>
-      </c>
-      <c r="J11" t="n">
-        <v>168885.57</v>
-      </c>
-      <c r="K11" t="n">
-        <v>169061.14</v>
-      </c>
-      <c r="L11" t="n">
-        <v>168899.37</v>
-      </c>
-      <c r="M11" t="n">
-        <v>169278.4</v>
+        <v>127396.5</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>174305.59</v>
+        <v>189680.98</v>
       </c>
       <c r="C12" t="n">
-        <v>174378.3</v>
+        <v>189770.12</v>
       </c>
       <c r="D12" t="n">
-        <v>174333.96</v>
+        <v>194091.59</v>
       </c>
       <c r="E12" t="n">
-        <v>178618.54</v>
+        <v>189690.12</v>
       </c>
       <c r="F12" t="n">
-        <v>189738.7</v>
+        <v>189730.81</v>
       </c>
       <c r="G12" t="n">
-        <v>189783.18</v>
-      </c>
-      <c r="H12" t="n">
-        <v>189738.28</v>
-      </c>
-      <c r="I12" t="n">
-        <v>189799.81</v>
-      </c>
-      <c r="J12" t="n">
-        <v>189674</v>
-      </c>
-      <c r="K12" t="n">
-        <v>189785.38</v>
-      </c>
-      <c r="L12" t="n">
-        <v>189651.84</v>
-      </c>
-      <c r="M12" t="n">
-        <v>189680.98</v>
+        <v>189723.4</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239473.66</v>
+        <v>233267.53</v>
       </c>
       <c r="C13" t="n">
-        <v>239553.76</v>
+        <v>233357.72</v>
       </c>
       <c r="D13" t="n">
-        <v>237483.51</v>
+        <v>238624.84</v>
       </c>
       <c r="E13" t="n">
-        <v>237497.9</v>
+        <v>233252</v>
       </c>
       <c r="F13" t="n">
-        <v>237252.39</v>
+        <v>233367.11</v>
       </c>
       <c r="G13" t="n">
-        <v>233297.58</v>
-      </c>
-      <c r="H13" t="n">
-        <v>233260.45</v>
-      </c>
-      <c r="I13" t="n">
-        <v>233302</v>
-      </c>
-      <c r="J13" t="n">
-        <v>233357.82</v>
-      </c>
-      <c r="K13" t="n">
-        <v>233559.82</v>
-      </c>
-      <c r="L13" t="n">
-        <v>233525.57</v>
-      </c>
-      <c r="M13" t="n">
-        <v>233267.53</v>
+        <v>233389.69</v>
       </c>
     </row>
     <row r="14">
@@ -1018,38 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129884.71</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>129586.24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>129640.89</v>
+      </c>
       <c r="D14" t="n">
-        <v>129519.06</v>
+        <v>132768.95</v>
       </c>
       <c r="E14" t="n">
-        <v>130017.71</v>
+        <v>129857.5</v>
       </c>
       <c r="F14" t="n">
-        <v>130505.84</v>
+        <v>130295.74</v>
       </c>
       <c r="G14" t="n">
-        <v>129862.04</v>
-      </c>
-      <c r="H14" t="n">
-        <v>129173.01</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129892.63</v>
-      </c>
-      <c r="J14" t="n">
-        <v>129086.74</v>
-      </c>
-      <c r="K14" t="n">
-        <v>130157.27</v>
-      </c>
-      <c r="L14" t="n">
-        <v>129596.26</v>
-      </c>
-      <c r="M14" t="n">
-        <v>129586.24</v>
+        <v>129422.18</v>
       </c>
     </row>
     <row r="15">
@@ -1059,38 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82377.64999999999</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>82100.46000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>82362.60000000001</v>
+      </c>
       <c r="D15" t="n">
-        <v>82522.14</v>
+        <v>84279.82000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>82182.83</v>
+        <v>82385.42</v>
       </c>
       <c r="F15" t="n">
-        <v>82282.49000000001</v>
+        <v>82397.25</v>
       </c>
       <c r="G15" t="n">
-        <v>82060.59</v>
-      </c>
-      <c r="H15" t="n">
-        <v>82285.17</v>
-      </c>
-      <c r="I15" t="n">
-        <v>82304.07000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>82513.62</v>
-      </c>
-      <c r="K15" t="n">
-        <v>82537.37</v>
-      </c>
-      <c r="L15" t="n">
-        <v>82263.17999999999</v>
-      </c>
-      <c r="M15" t="n">
-        <v>82100.46000000001</v>
+        <v>82281.37</v>
       </c>
     </row>
     <row r="16">
@@ -1100,38 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55062.08</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>52189.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>52658.03</v>
+      </c>
       <c r="D16" t="n">
-        <v>52360.83</v>
+        <v>53603.08</v>
       </c>
       <c r="E16" t="n">
-        <v>52373.61</v>
+        <v>52693.15</v>
       </c>
       <c r="F16" t="n">
-        <v>52176.82</v>
+        <v>52132.55</v>
       </c>
       <c r="G16" t="n">
-        <v>52207.82</v>
-      </c>
-      <c r="H16" t="n">
-        <v>52465.04</v>
-      </c>
-      <c r="I16" t="n">
-        <v>52559.54</v>
-      </c>
-      <c r="J16" t="n">
-        <v>52601.03</v>
-      </c>
-      <c r="K16" t="n">
-        <v>52479.86</v>
-      </c>
-      <c r="L16" t="n">
-        <v>52335.43</v>
-      </c>
-      <c r="M16" t="n">
-        <v>52189.3</v>
+        <v>52224.51</v>
       </c>
     </row>
     <row r="17">
@@ -1141,38 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>281730.16</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>260632.13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>260117.32</v>
+      </c>
       <c r="D17" t="n">
-        <v>263330.22</v>
+        <v>266230.88</v>
       </c>
       <c r="E17" t="n">
-        <v>260438.59</v>
+        <v>261296.01</v>
       </c>
       <c r="F17" t="n">
-        <v>261200.32</v>
+        <v>240537.51</v>
       </c>
       <c r="G17" t="n">
-        <v>261066.59</v>
-      </c>
-      <c r="H17" t="n">
-        <v>261092.15</v>
-      </c>
-      <c r="I17" t="n">
-        <v>260870.75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>260824.16</v>
-      </c>
-      <c r="K17" t="n">
-        <v>260737.62</v>
-      </c>
-      <c r="L17" t="n">
-        <v>260864.94</v>
-      </c>
-      <c r="M17" t="n">
-        <v>260632.13</v>
+        <v>221751.43</v>
       </c>
     </row>
     <row r="18">
@@ -1182,38 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14993.7</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>15790.61</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15651.56</v>
+      </c>
       <c r="D18" t="n">
-        <v>16182.92</v>
+        <v>16510.82</v>
       </c>
       <c r="E18" t="n">
-        <v>16025.4</v>
+        <v>16067.5</v>
       </c>
       <c r="F18" t="n">
-        <v>15748.17</v>
+        <v>15950.69</v>
       </c>
       <c r="G18" t="n">
-        <v>15401.92</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15062.04</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15533.79</v>
-      </c>
-      <c r="J18" t="n">
-        <v>15130.15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>16109.63</v>
-      </c>
-      <c r="L18" t="n">
-        <v>15013.05</v>
-      </c>
-      <c r="M18" t="n">
-        <v>15790.61</v>
+        <v>1016.69</v>
       </c>
     </row>
     <row r="19">
@@ -1223,38 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85623.34</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>80764.67</v>
+      </c>
+      <c r="C19" t="n">
+        <v>80802.24000000001</v>
+      </c>
       <c r="D19" t="n">
-        <v>85455.85000000001</v>
+        <v>83153.3</v>
       </c>
       <c r="E19" t="n">
-        <v>88670.83</v>
+        <v>80679.19</v>
       </c>
       <c r="F19" t="n">
-        <v>88823.83</v>
+        <v>80616.22</v>
       </c>
       <c r="G19" t="n">
-        <v>91182.07000000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>91428.73</v>
-      </c>
-      <c r="I19" t="n">
-        <v>91227.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>90922.13</v>
-      </c>
-      <c r="K19" t="n">
-        <v>83531.08</v>
-      </c>
-      <c r="L19" t="n">
-        <v>80782.25999999999</v>
-      </c>
-      <c r="M19" t="n">
-        <v>80764.67</v>
+        <v>84570.73</v>
       </c>
     </row>
     <row r="20">
@@ -1264,38 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84223.53999999999</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>76839.92999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>76747.88</v>
+      </c>
       <c r="D20" t="n">
-        <v>83644.95</v>
+        <v>79130.28999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>84041.56</v>
+        <v>77350.88</v>
       </c>
       <c r="F20" t="n">
-        <v>83641.81</v>
+        <v>77359.39</v>
       </c>
       <c r="G20" t="n">
-        <v>83748.97</v>
-      </c>
-      <c r="H20" t="n">
-        <v>83817.92</v>
-      </c>
-      <c r="I20" t="n">
-        <v>83870.86</v>
-      </c>
-      <c r="J20" t="n">
-        <v>84140.42</v>
-      </c>
-      <c r="K20" t="n">
-        <v>77204.50999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>77081.98</v>
-      </c>
-      <c r="M20" t="n">
-        <v>76839.92999999999</v>
+        <v>77187.14</v>
       </c>
     </row>
     <row r="21">
@@ -1305,38 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>543283.66</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>483791.34</v>
+      </c>
+      <c r="C21" t="n">
+        <v>473467.11</v>
+      </c>
       <c r="D21" t="n">
-        <v>563957.96</v>
+        <v>482879.94</v>
       </c>
       <c r="E21" t="n">
-        <v>630396.21</v>
+        <v>477098.69</v>
       </c>
       <c r="F21" t="n">
-        <v>624578.16</v>
+        <v>508787.79</v>
       </c>
       <c r="G21" t="n">
-        <v>623635.3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>624270.58</v>
-      </c>
-      <c r="I21" t="n">
-        <v>616904.14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>601507.99</v>
-      </c>
-      <c r="K21" t="n">
-        <v>529055.86</v>
-      </c>
-      <c r="L21" t="n">
-        <v>494312.86</v>
-      </c>
-      <c r="M21" t="n">
-        <v>483791.34</v>
+        <v>546483.3100000001</v>
       </c>
     </row>
     <row r="22">
@@ -1346,40 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109272.56</v>
+        <v>108811.32</v>
       </c>
       <c r="C22" t="n">
-        <v>109035.91</v>
+        <v>106070.43</v>
       </c>
       <c r="D22" t="n">
-        <v>108962.1</v>
+        <v>108545.6</v>
       </c>
       <c r="E22" t="n">
-        <v>109328.1</v>
+        <v>101381.64</v>
       </c>
       <c r="F22" t="n">
-        <v>109170.21</v>
+        <v>104429.58</v>
       </c>
       <c r="G22" t="n">
-        <v>109371.55</v>
-      </c>
-      <c r="H22" t="n">
-        <v>108947.23</v>
-      </c>
-      <c r="I22" t="n">
-        <v>109531.03</v>
-      </c>
-      <c r="J22" t="n">
-        <v>108937.67</v>
-      </c>
-      <c r="K22" t="n">
-        <v>109293.4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>109446.95</v>
-      </c>
-      <c r="M22" t="n">
-        <v>108811.32</v>
+        <v>111327.4</v>
       </c>
     </row>
     <row r="23">
@@ -1389,40 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171937.25</v>
+        <v>201935.94</v>
       </c>
       <c r="C23" t="n">
-        <v>171878.09</v>
+        <v>201922.69</v>
       </c>
       <c r="D23" t="n">
-        <v>142182.1</v>
+        <v>206727.67</v>
       </c>
       <c r="E23" t="n">
-        <v>141906.13</v>
+        <v>202092.4</v>
       </c>
       <c r="F23" t="n">
-        <v>142038.74</v>
+        <v>202116.84</v>
       </c>
       <c r="G23" t="n">
-        <v>142086.12</v>
-      </c>
-      <c r="H23" t="n">
-        <v>202071.64</v>
-      </c>
-      <c r="I23" t="n">
-        <v>202077.61</v>
-      </c>
-      <c r="J23" t="n">
-        <v>201954.47</v>
-      </c>
-      <c r="K23" t="n">
-        <v>202046.23</v>
-      </c>
-      <c r="L23" t="n">
-        <v>202163.93</v>
-      </c>
-      <c r="M23" t="n">
-        <v>201935.94</v>
+        <v>202030.75</v>
       </c>
     </row>
     <row r="24">
@@ -1432,40 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2176293.29</v>
+        <v>1701309.96</v>
       </c>
       <c r="C24" t="n">
-        <v>2128678.99</v>
+        <v>1700061.53</v>
       </c>
       <c r="D24" t="n">
-        <v>2125656.99</v>
+        <v>1739091.15</v>
       </c>
       <c r="E24" t="n">
-        <v>2128070.89</v>
+        <v>1699745.63</v>
       </c>
       <c r="F24" t="n">
-        <v>1949476.81</v>
+        <v>1700707.84</v>
       </c>
       <c r="G24" t="n">
-        <v>1901068.39</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1899628.65</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1898800.17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1700136.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1698360.68</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1698891.21</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1701309.96</v>
+        <v>1698590.31</v>
       </c>
     </row>
     <row r="25">
@@ -1475,40 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15344.86</v>
+        <v>12332.89</v>
       </c>
       <c r="C25" t="n">
-        <v>15357.3</v>
+        <v>12327.64</v>
       </c>
       <c r="D25" t="n">
-        <v>12353.54</v>
+        <v>12582.31</v>
       </c>
       <c r="E25" t="n">
-        <v>12313.98</v>
+        <v>12360.6</v>
       </c>
       <c r="F25" t="n">
-        <v>12308.22</v>
+        <v>12323.27</v>
       </c>
       <c r="G25" t="n">
-        <v>12276.17</v>
-      </c>
-      <c r="H25" t="n">
-        <v>12304.56</v>
-      </c>
-      <c r="I25" t="n">
-        <v>12302.13</v>
-      </c>
-      <c r="J25" t="n">
-        <v>12337.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12351.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>12356.92</v>
-      </c>
-      <c r="M25" t="n">
-        <v>12332.89</v>
+        <v>12330.04</v>
       </c>
     </row>
     <row r="26">
@@ -1518,40 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>207.54</v>
+        <v>207.72</v>
       </c>
       <c r="C26" t="n">
-        <v>209.95</v>
+        <v>183.31</v>
       </c>
       <c r="D26" t="n">
-        <v>214.72</v>
+        <v>222.4</v>
       </c>
       <c r="E26" t="n">
-        <v>210.16</v>
+        <v>209.58</v>
       </c>
       <c r="F26" t="n">
-        <v>190.72</v>
+        <v>206.64</v>
       </c>
       <c r="G26" t="n">
-        <v>209.01</v>
-      </c>
-      <c r="H26" t="n">
-        <v>193.43</v>
-      </c>
-      <c r="I26" t="n">
-        <v>198.45</v>
-      </c>
-      <c r="J26" t="n">
-        <v>196.15</v>
-      </c>
-      <c r="K26" t="n">
-        <v>185.23</v>
-      </c>
-      <c r="L26" t="n">
-        <v>216.06</v>
-      </c>
-      <c r="M26" t="n">
-        <v>207.72</v>
+        <v>200.87</v>
       </c>
     </row>
     <row r="27">
@@ -1561,40 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>85120.96000000001</v>
+        <v>52045.21</v>
       </c>
       <c r="C27" t="n">
-        <v>85281.75999999999</v>
+        <v>47000.45</v>
       </c>
       <c r="D27" t="n">
-        <v>78108.13</v>
+        <v>48017.84</v>
       </c>
       <c r="E27" t="n">
-        <v>77839.28999999999</v>
+        <v>56944.72</v>
       </c>
       <c r="F27" t="n">
-        <v>73093.5</v>
+        <v>57069.45</v>
       </c>
       <c r="G27" t="n">
-        <v>70925.27</v>
-      </c>
-      <c r="H27" t="n">
-        <v>74109.75999999999</v>
-      </c>
-      <c r="I27" t="n">
-        <v>65393.38</v>
-      </c>
-      <c r="J27" t="n">
-        <v>65527.59</v>
-      </c>
-      <c r="K27" t="n">
-        <v>62183.13</v>
-      </c>
-      <c r="L27" t="n">
-        <v>52189.51</v>
-      </c>
-      <c r="M27" t="n">
-        <v>52045.21</v>
+        <v>59181.3</v>
       </c>
     </row>
     <row r="28">
@@ -1604,40 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>246682.29</v>
+        <v>176414.37</v>
       </c>
       <c r="C28" t="n">
-        <v>246972.87</v>
+        <v>176170.35</v>
       </c>
       <c r="D28" t="n">
-        <v>196486.76</v>
+        <v>180420.72</v>
       </c>
       <c r="E28" t="n">
-        <v>196984.82</v>
+        <v>176018.14</v>
       </c>
       <c r="F28" t="n">
-        <v>196677.13</v>
+        <v>176012.25</v>
       </c>
       <c r="G28" t="n">
-        <v>196875.64</v>
-      </c>
-      <c r="H28" t="n">
-        <v>196689.55</v>
-      </c>
-      <c r="I28" t="n">
-        <v>196527.92</v>
-      </c>
-      <c r="J28" t="n">
-        <v>192092.94</v>
-      </c>
-      <c r="K28" t="n">
-        <v>191998.89</v>
-      </c>
-      <c r="L28" t="n">
-        <v>176264.56</v>
-      </c>
-      <c r="M28" t="n">
-        <v>176414.37</v>
+        <v>184290.27</v>
       </c>
     </row>
     <row r="29">
@@ -1647,40 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13156.36</v>
+        <v>18975.35</v>
       </c>
       <c r="C29" t="n">
-        <v>13822.98</v>
+        <v>18968.66</v>
       </c>
       <c r="D29" t="n">
-        <v>17669.17</v>
+        <v>18902.51</v>
       </c>
       <c r="E29" t="n">
-        <v>18493.48</v>
+        <v>18372.39</v>
       </c>
       <c r="F29" t="n">
-        <v>18342.92</v>
+        <v>18634.31</v>
       </c>
       <c r="G29" t="n">
-        <v>18257.18</v>
-      </c>
-      <c r="H29" t="n">
-        <v>21843.78</v>
-      </c>
-      <c r="I29" t="n">
-        <v>21841.39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>21849.16</v>
-      </c>
-      <c r="K29" t="n">
-        <v>21721.54</v>
-      </c>
-      <c r="L29" t="n">
-        <v>21537.56</v>
-      </c>
-      <c r="M29" t="n">
-        <v>18975.35</v>
+        <v>19845.96</v>
       </c>
     </row>
     <row r="30">
@@ -1690,40 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1515.67</v>
+        <v>1766.03</v>
       </c>
       <c r="C30" t="n">
-        <v>1523.69</v>
+        <v>1689.66</v>
       </c>
       <c r="D30" t="n">
-        <v>1779.92</v>
+        <v>1724.27</v>
       </c>
       <c r="E30" t="n">
-        <v>1774.15</v>
+        <v>1674.26</v>
       </c>
       <c r="F30" t="n">
-        <v>1782.04</v>
+        <v>1688.57</v>
       </c>
       <c r="G30" t="n">
-        <v>1779.16</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1771.85</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1770.44</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1772.34</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1780.13</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1768.09</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1766.03</v>
+        <v>1688.44</v>
       </c>
     </row>
     <row r="31">
@@ -1733,40 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8237.93</v>
+        <v>10785.2</v>
       </c>
       <c r="C31" t="n">
-        <v>8365.32</v>
+        <v>10630.38</v>
       </c>
       <c r="D31" t="n">
-        <v>8254.389999999999</v>
+        <v>10999.77</v>
       </c>
       <c r="E31" t="n">
-        <v>12904.01</v>
+        <v>10723.46</v>
       </c>
       <c r="F31" t="n">
-        <v>12935.87</v>
+        <v>10649.5</v>
       </c>
       <c r="G31" t="n">
-        <v>12844.11</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12872.22</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12946.63</v>
-      </c>
-      <c r="J31" t="n">
-        <v>10648.04</v>
-      </c>
-      <c r="K31" t="n">
-        <v>10740.69</v>
-      </c>
-      <c r="L31" t="n">
-        <v>10837.76</v>
-      </c>
-      <c r="M31" t="n">
-        <v>10785.2</v>
+        <v>10699.56</v>
       </c>
     </row>
     <row r="32">
@@ -1776,40 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5651.52</v>
+        <v>5672.71</v>
       </c>
       <c r="C32" t="n">
-        <v>5755.53</v>
+        <v>5739.04</v>
       </c>
       <c r="D32" t="n">
-        <v>5757.71</v>
+        <v>5777.3</v>
       </c>
       <c r="E32" t="n">
-        <v>5724.26</v>
+        <v>5671.12</v>
       </c>
       <c r="F32" t="n">
-        <v>5687.61</v>
+        <v>5699.48</v>
       </c>
       <c r="G32" t="n">
-        <v>5660.52</v>
-      </c>
-      <c r="H32" t="n">
-        <v>5694.02</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5652.74</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5690.18</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5668.11</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5688.93</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5672.71</v>
+        <v>5713.18</v>
       </c>
     </row>
     <row r="33">
@@ -1819,40 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11156.19</v>
+        <v>9331.18</v>
       </c>
       <c r="C33" t="n">
-        <v>11149.77</v>
+        <v>9343.690000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>11128.7</v>
+        <v>9447.68</v>
       </c>
       <c r="E33" t="n">
-        <v>11126.37</v>
+        <v>17837.76</v>
       </c>
       <c r="F33" t="n">
-        <v>9254.129999999999</v>
+        <v>17840.32</v>
       </c>
       <c r="G33" t="n">
-        <v>9328.51</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9285.51</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9268.23</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9286.690000000001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9248.67</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9236.809999999999</v>
-      </c>
-      <c r="M33" t="n">
-        <v>9331.18</v>
+        <v>17756.17</v>
       </c>
     </row>
     <row r="34">
@@ -1862,38 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80672.07000000001</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>80850.17999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>80708.91</v>
+      </c>
       <c r="D34" t="n">
-        <v>80650.71000000001</v>
+        <v>82439.89</v>
       </c>
       <c r="E34" t="n">
-        <v>80520.37</v>
+        <v>80682.28999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>80635.67999999999</v>
+        <v>80754.58</v>
       </c>
       <c r="G34" t="n">
-        <v>80573.66</v>
-      </c>
-      <c r="H34" t="n">
-        <v>80821.64</v>
-      </c>
-      <c r="I34" t="n">
-        <v>80699.92</v>
-      </c>
-      <c r="J34" t="n">
-        <v>80722.99000000001</v>
-      </c>
-      <c r="K34" t="n">
-        <v>80806</v>
-      </c>
-      <c r="L34" t="n">
-        <v>80755.10000000001</v>
-      </c>
-      <c r="M34" t="n">
-        <v>80850.17999999999</v>
+        <v>80533.14999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1903,40 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97188</v>
+        <v>97021.21000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>97435.21000000001</v>
+        <v>97021.52</v>
       </c>
       <c r="D35" t="n">
-        <v>96966.10000000001</v>
+        <v>99482.28999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>97026.5</v>
+        <v>97498.46000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>97516.52</v>
+        <v>96990.74000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>97194.83</v>
-      </c>
-      <c r="H35" t="n">
-        <v>97128.85000000001</v>
-      </c>
-      <c r="I35" t="n">
-        <v>97429.53</v>
-      </c>
-      <c r="J35" t="n">
-        <v>97000.10000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>97207.05</v>
-      </c>
-      <c r="L35" t="n">
-        <v>97417.99000000001</v>
-      </c>
-      <c r="M35" t="n">
-        <v>97021.21000000001</v>
+        <v>97507.71000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1946,40 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13909.42</v>
+        <v>18865.63</v>
       </c>
       <c r="C36" t="n">
-        <v>14034.81</v>
+        <v>18979.61</v>
       </c>
       <c r="D36" t="n">
-        <v>13924.2</v>
+        <v>19538.21</v>
       </c>
       <c r="E36" t="n">
-        <v>14005.69</v>
+        <v>18876.06</v>
       </c>
       <c r="F36" t="n">
-        <v>13920.84</v>
+        <v>20481.8</v>
       </c>
       <c r="G36" t="n">
-        <v>13978.5</v>
-      </c>
-      <c r="H36" t="n">
-        <v>17083.92</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17023.38</v>
-      </c>
-      <c r="J36" t="n">
-        <v>16997.81</v>
-      </c>
-      <c r="K36" t="n">
-        <v>16079.53</v>
-      </c>
-      <c r="L36" t="n">
-        <v>18902.23</v>
-      </c>
-      <c r="M36" t="n">
-        <v>18865.63</v>
+        <v>24443.62</v>
       </c>
     </row>
     <row r="37">
@@ -1989,40 +1347,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35865.85</v>
+        <v>35795.43</v>
       </c>
       <c r="C37" t="n">
-        <v>35784.66</v>
+        <v>35923.98</v>
       </c>
       <c r="D37" t="n">
-        <v>35766.13</v>
+        <v>36712.47</v>
       </c>
       <c r="E37" t="n">
-        <v>35836.88</v>
+        <v>108034.22</v>
       </c>
       <c r="F37" t="n">
-        <v>35776.44</v>
+        <v>108050.8</v>
       </c>
       <c r="G37" t="n">
-        <v>35872.25</v>
-      </c>
-      <c r="H37" t="n">
-        <v>35862.22</v>
-      </c>
-      <c r="I37" t="n">
-        <v>35845.83</v>
-      </c>
-      <c r="J37" t="n">
-        <v>35871.29</v>
-      </c>
-      <c r="K37" t="n">
-        <v>35575.1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>35909.38</v>
-      </c>
-      <c r="M37" t="n">
-        <v>35795.43</v>
+        <v>107923.36</v>
       </c>
     </row>
     <row r="38">
@@ -2032,40 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25897.3</v>
+        <v>25555.56</v>
       </c>
       <c r="C38" t="n">
-        <v>25903.55</v>
+        <v>24043.62</v>
       </c>
       <c r="D38" t="n">
-        <v>24428.18</v>
+        <v>24653.78</v>
       </c>
       <c r="E38" t="n">
-        <v>23961.16</v>
+        <v>24229.93</v>
       </c>
       <c r="F38" t="n">
-        <v>25869.09</v>
+        <v>23899.84</v>
       </c>
       <c r="G38" t="n">
-        <v>26062.75</v>
-      </c>
-      <c r="H38" t="n">
-        <v>26082.98</v>
-      </c>
-      <c r="I38" t="n">
-        <v>26081.09</v>
-      </c>
-      <c r="J38" t="n">
-        <v>26115.68</v>
-      </c>
-      <c r="K38" t="n">
-        <v>26079.83</v>
-      </c>
-      <c r="L38" t="n">
-        <v>26239.08</v>
-      </c>
-      <c r="M38" t="n">
-        <v>25555.56</v>
+        <v>26271.72</v>
       </c>
     </row>
     <row r="39">
@@ -2075,40 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>627484.72</v>
+        <v>571787.83</v>
       </c>
       <c r="C39" t="n">
-        <v>627541.64</v>
+        <v>571737.74</v>
       </c>
       <c r="D39" t="n">
-        <v>627578.8</v>
+        <v>584216.39</v>
       </c>
       <c r="E39" t="n">
-        <v>627146.88</v>
+        <v>571948.39</v>
       </c>
       <c r="F39" t="n">
-        <v>627328.22</v>
+        <v>591304</v>
       </c>
       <c r="G39" t="n">
-        <v>626928.58</v>
-      </c>
-      <c r="H39" t="n">
-        <v>607379.1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>607932.61</v>
-      </c>
-      <c r="J39" t="n">
-        <v>607555.87</v>
-      </c>
-      <c r="K39" t="n">
-        <v>607912.47</v>
-      </c>
-      <c r="L39" t="n">
-        <v>571348.4</v>
-      </c>
-      <c r="M39" t="n">
-        <v>571787.83</v>
+        <v>591626.88</v>
       </c>
     </row>
     <row r="40">
@@ -2118,237 +1422,122 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144671</v>
+        <v>156969.64</v>
       </c>
       <c r="C40" t="n">
-        <v>146035.78</v>
+        <v>157380.77</v>
       </c>
       <c r="D40" t="n">
-        <v>144592.56</v>
+        <v>161058.24</v>
       </c>
       <c r="E40" t="n">
-        <v>157754.16</v>
+        <v>157575.49</v>
       </c>
       <c r="F40" t="n">
-        <v>156824.05</v>
+        <v>156462.42</v>
       </c>
       <c r="G40" t="n">
-        <v>157006.01</v>
-      </c>
-      <c r="H40" t="n">
-        <v>156635.74</v>
-      </c>
-      <c r="I40" t="n">
-        <v>155646.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>156812.67</v>
-      </c>
-      <c r="K40" t="n">
-        <v>157193.28</v>
-      </c>
-      <c r="L40" t="n">
-        <v>156123.55</v>
-      </c>
-      <c r="M40" t="n">
-        <v>156969.64</v>
+        <v>156976.38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>867068.76</v>
+        <v>1265018.75</v>
       </c>
       <c r="C41" t="n">
-        <v>866934.7</v>
+        <v>1265083.97</v>
       </c>
       <c r="D41" t="n">
-        <v>884941.74</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+        <v>1224910.18</v>
+      </c>
+      <c r="E41" t="n">
+        <v>975961.91</v>
+      </c>
+      <c r="F41" t="n">
+        <v>924522.29</v>
+      </c>
+      <c r="G41" t="n">
+        <v>925416.4399999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1265925.81</v>
+        <v>54013.51</v>
       </c>
       <c r="C42" t="n">
-        <v>1267114.6</v>
+        <v>53920.09</v>
       </c>
       <c r="D42" t="n">
-        <v>1265721.43</v>
+        <v>55230.04</v>
       </c>
       <c r="E42" t="n">
-        <v>1267389.53</v>
+        <v>53857.52</v>
       </c>
       <c r="F42" t="n">
-        <v>1265016.54</v>
+        <v>53902.73</v>
       </c>
       <c r="G42" t="n">
-        <v>1265288.12</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1265217.48</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1266216.94</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1265931.6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1266610.38</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1264914.29</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1265018.75</v>
+        <v>61657.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53884.9</v>
+        <v>222581.39</v>
       </c>
       <c r="C43" t="n">
-        <v>53940.11</v>
+        <v>221908.1</v>
       </c>
       <c r="D43" t="n">
-        <v>53859.2</v>
+        <v>224333.36</v>
       </c>
       <c r="E43" t="n">
-        <v>54008.9</v>
+        <v>215643.44</v>
       </c>
       <c r="F43" t="n">
-        <v>53973.67</v>
+        <v>215617.62</v>
       </c>
       <c r="G43" t="n">
-        <v>53933.62</v>
-      </c>
-      <c r="H43" t="n">
-        <v>54001.8</v>
-      </c>
-      <c r="I43" t="n">
-        <v>53904.25</v>
-      </c>
-      <c r="J43" t="n">
-        <v>54002.58</v>
-      </c>
-      <c r="K43" t="n">
-        <v>53915.63</v>
-      </c>
-      <c r="L43" t="n">
-        <v>53925.52</v>
-      </c>
-      <c r="M43" t="n">
-        <v>54013.51</v>
+        <v>216923.01</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255461.89</v>
+        <v>9125837.140000001</v>
       </c>
       <c r="C44" t="n">
-        <v>283031.79</v>
+        <v>9098232.18</v>
       </c>
       <c r="D44" t="n">
-        <v>253276.3</v>
+        <v>9197667.68</v>
       </c>
       <c r="E44" t="n">
-        <v>240487.18</v>
+        <v>8841381.15</v>
       </c>
       <c r="F44" t="n">
-        <v>236084.43</v>
+        <v>8840322.380000001</v>
       </c>
       <c r="G44" t="n">
-        <v>234775.59</v>
-      </c>
-      <c r="H44" t="n">
-        <v>236192.73</v>
-      </c>
-      <c r="I44" t="n">
-        <v>234443.24</v>
-      </c>
-      <c r="J44" t="n">
-        <v>228729.3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>226448.39</v>
-      </c>
-      <c r="L44" t="n">
-        <v>222847.96</v>
-      </c>
-      <c r="M44" t="n">
-        <v>222581.39</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>10729399.19</v>
-      </c>
-      <c r="C45" t="n">
-        <v>9340049.189999999</v>
-      </c>
-      <c r="D45" t="n">
-        <v>10637604.56</v>
-      </c>
-      <c r="E45" t="n">
-        <v>9859974.52</v>
-      </c>
-      <c r="F45" t="n">
-        <v>9679461.77</v>
-      </c>
-      <c r="G45" t="n">
-        <v>9625799.210000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>9683901.859999999</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9612172.73</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9377901.140000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>9284383.949999999</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9136766.220000001</v>
-      </c>
-      <c r="M45" t="n">
-        <v>9125837.140000001</v>
+        <v>8893843.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>162595.14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>175154.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>188161.29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187889.64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>188446.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>188049.01</v>
+      </c>
+      <c r="H2" t="n">
+        <v>198217.62</v>
+      </c>
+      <c r="I2" t="n">
+        <v>185369.66</v>
+      </c>
+      <c r="J2" t="n">
+        <v>185428.46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>185097.73</v>
+      </c>
+      <c r="L2" t="n">
+        <v>137210.96</v>
+      </c>
+      <c r="M2" t="n">
         <v>136960.39</v>
-      </c>
-      <c r="C2" t="n">
-        <v>137006.78</v>
-      </c>
-      <c r="D2" t="n">
-        <v>139878.99</v>
-      </c>
-      <c r="E2" t="n">
-        <v>137047.54</v>
-      </c>
-      <c r="F2" t="n">
-        <v>147139.97</v>
-      </c>
-      <c r="G2" t="n">
-        <v>147078.15</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>105900.95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>106013.87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>106021.72</v>
+      </c>
+      <c r="E3" t="n">
+        <v>105383.84</v>
+      </c>
+      <c r="F3" t="n">
+        <v>105686.62</v>
+      </c>
+      <c r="G3" t="n">
+        <v>105879.99</v>
+      </c>
+      <c r="H3" t="n">
+        <v>105617.37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>105609.23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>105916.21</v>
+      </c>
+      <c r="K3" t="n">
+        <v>105434.82</v>
+      </c>
+      <c r="L3" t="n">
+        <v>105471.58</v>
+      </c>
+      <c r="M3" t="n">
         <v>106029.47</v>
-      </c>
-      <c r="C3" t="n">
-        <v>105343.33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>107807.91</v>
-      </c>
-      <c r="E3" t="n">
-        <v>106143.94</v>
-      </c>
-      <c r="F3" t="n">
-        <v>105682.06</v>
-      </c>
-      <c r="G3" t="n">
-        <v>118469.16</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>14549.89</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19650.54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19573.92</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19622.01</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19569.24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19541.27</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19544.28</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19529.18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19542.07</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19598.04</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19549.07</v>
+      </c>
+      <c r="M4" t="n">
         <v>19598.71</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19612.12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20003.67</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19611.39</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19548.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19545.17</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>59812.55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60176.39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59975.41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60029.71</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60127.86</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60130.12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>59894.66</v>
+      </c>
+      <c r="I5" t="n">
+        <v>59911.21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60180.27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>59824.52</v>
+      </c>
+      <c r="L5" t="n">
+        <v>59921.46</v>
+      </c>
+      <c r="M5" t="n">
         <v>60166.94</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60244.36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>61211.68</v>
-      </c>
-      <c r="E5" t="n">
-        <v>59966.49</v>
-      </c>
-      <c r="F5" t="n">
-        <v>59821.96</v>
-      </c>
-      <c r="G5" t="n">
-        <v>59884.79</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>155546.84</v>
+      </c>
+      <c r="C6" t="n">
+        <v>155895.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>155849</v>
+      </c>
+      <c r="E6" t="n">
+        <v>155748.42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>155038.93</v>
+      </c>
+      <c r="G6" t="n">
+        <v>156003.03</v>
+      </c>
+      <c r="H6" t="n">
+        <v>155329.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>113807.71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>113671.28</v>
+      </c>
+      <c r="K6" t="n">
+        <v>113510.09</v>
+      </c>
+      <c r="L6" t="n">
+        <v>113543.95</v>
+      </c>
+      <c r="M6" t="n">
         <v>113891.06</v>
-      </c>
-      <c r="C6" t="n">
-        <v>113678.55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90823.02</v>
-      </c>
-      <c r="E6" t="n">
-        <v>88622.08</v>
-      </c>
-      <c r="F6" t="n">
-        <v>89403.09</v>
-      </c>
-      <c r="G6" t="n">
-        <v>88930.64</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>47547.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47583.01</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52577.63</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52663.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>52637.31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>52559.33</v>
+      </c>
+      <c r="H7" t="n">
+        <v>52733.99</v>
+      </c>
+      <c r="I7" t="n">
+        <v>52580.29</v>
+      </c>
+      <c r="J7" t="n">
+        <v>52734.28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>52641.61</v>
+      </c>
+      <c r="L7" t="n">
+        <v>52821.1</v>
+      </c>
+      <c r="M7" t="n">
         <v>52514.41</v>
-      </c>
-      <c r="C7" t="n">
-        <v>52639.67</v>
-      </c>
-      <c r="D7" t="n">
-        <v>53688.42</v>
-      </c>
-      <c r="E7" t="n">
-        <v>52825.76</v>
-      </c>
-      <c r="F7" t="n">
-        <v>52688.66</v>
-      </c>
-      <c r="G7" t="n">
-        <v>52668.63</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>3508.12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3526.11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3501.35</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3478.16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3468.24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3484.78</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3529.23</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3523.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3533.32</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3510.39</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3537.14</v>
+      </c>
+      <c r="M8" t="n">
         <v>3463.36</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3478.26</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3576.11</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3499.05</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3522.52</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3497.43</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>2254534.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2253545.88</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2253712.06</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2254583.86</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2254129.98</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2254436.59</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2254506.91</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2252618.79</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2252745.89</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2253100.36</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2253758.82</v>
+      </c>
+      <c r="M9" t="n">
         <v>2253337.71</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2252215.49</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2303295.92</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2253997.84</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2260137.51</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2261821.93</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>4047.73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4047.65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4041.51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4067.34</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4060.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4061.31</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4055.26</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4057.79</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4066.81</v>
+      </c>
+      <c r="K10" t="n">
+        <v>489.48</v>
+      </c>
+      <c r="L10" t="n">
+        <v>491.57</v>
+      </c>
+      <c r="M10" t="n">
         <v>487.88</v>
-      </c>
-      <c r="C10" t="n">
-        <v>487.86</v>
-      </c>
-      <c r="D10" t="n">
-        <v>503.18</v>
-      </c>
-      <c r="E10" t="n">
-        <v>490.43</v>
-      </c>
-      <c r="F10" t="n">
-        <v>487.69</v>
-      </c>
-      <c r="G10" t="n">
-        <v>489.8</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>173253.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>167767.16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>168415.99</v>
+      </c>
+      <c r="E11" t="n">
+        <v>181919.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>182528.74</v>
+      </c>
+      <c r="G11" t="n">
+        <v>181887.77</v>
+      </c>
+      <c r="H11" t="n">
+        <v>182253.28</v>
+      </c>
+      <c r="I11" t="n">
+        <v>181810.07</v>
+      </c>
+      <c r="J11" t="n">
+        <v>168885.57</v>
+      </c>
+      <c r="K11" t="n">
+        <v>169061.14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>168899.37</v>
+      </c>
+      <c r="M11" t="n">
         <v>169278.4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>164042.25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>154904.56</v>
-      </c>
-      <c r="E11" t="n">
-        <v>127110.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>126968.21</v>
-      </c>
-      <c r="G11" t="n">
-        <v>127396.5</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>174305.59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>174378.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>174333.96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>178618.54</v>
+      </c>
+      <c r="F12" t="n">
+        <v>189738.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>189783.18</v>
+      </c>
+      <c r="H12" t="n">
+        <v>189738.28</v>
+      </c>
+      <c r="I12" t="n">
+        <v>189799.81</v>
+      </c>
+      <c r="J12" t="n">
+        <v>189674</v>
+      </c>
+      <c r="K12" t="n">
+        <v>189785.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>189651.84</v>
+      </c>
+      <c r="M12" t="n">
         <v>189680.98</v>
-      </c>
-      <c r="C12" t="n">
-        <v>189770.12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>194091.59</v>
-      </c>
-      <c r="E12" t="n">
-        <v>189690.12</v>
-      </c>
-      <c r="F12" t="n">
-        <v>189730.81</v>
-      </c>
-      <c r="G12" t="n">
-        <v>189723.4</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>239473.66</v>
+      </c>
+      <c r="C13" t="n">
+        <v>239553.76</v>
+      </c>
+      <c r="D13" t="n">
+        <v>237483.51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>237497.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>237252.39</v>
+      </c>
+      <c r="G13" t="n">
+        <v>233297.58</v>
+      </c>
+      <c r="H13" t="n">
+        <v>233260.45</v>
+      </c>
+      <c r="I13" t="n">
+        <v>233302</v>
+      </c>
+      <c r="J13" t="n">
+        <v>233357.82</v>
+      </c>
+      <c r="K13" t="n">
+        <v>233559.82</v>
+      </c>
+      <c r="L13" t="n">
+        <v>233525.57</v>
+      </c>
+      <c r="M13" t="n">
         <v>233267.53</v>
-      </c>
-      <c r="C13" t="n">
-        <v>233357.72</v>
-      </c>
-      <c r="D13" t="n">
-        <v>238624.84</v>
-      </c>
-      <c r="E13" t="n">
-        <v>233252</v>
-      </c>
-      <c r="F13" t="n">
-        <v>233367.11</v>
-      </c>
-      <c r="G13" t="n">
-        <v>233389.69</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,38 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>129884.71</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>129519.06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>130017.71</v>
+      </c>
+      <c r="F14" t="n">
+        <v>130505.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>129862.04</v>
+      </c>
+      <c r="H14" t="n">
+        <v>129173.01</v>
+      </c>
+      <c r="I14" t="n">
+        <v>129892.63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>129086.74</v>
+      </c>
+      <c r="K14" t="n">
+        <v>130157.27</v>
+      </c>
+      <c r="L14" t="n">
+        <v>129596.26</v>
+      </c>
+      <c r="M14" t="n">
         <v>129586.24</v>
-      </c>
-      <c r="C14" t="n">
-        <v>129640.89</v>
-      </c>
-      <c r="D14" t="n">
-        <v>132768.95</v>
-      </c>
-      <c r="E14" t="n">
-        <v>129857.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>130295.74</v>
-      </c>
-      <c r="G14" t="n">
-        <v>129422.18</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1059,38 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>82377.64999999999</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>82522.14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>82182.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>82282.49000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>82060.59</v>
+      </c>
+      <c r="H15" t="n">
+        <v>82285.17</v>
+      </c>
+      <c r="I15" t="n">
+        <v>82304.07000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>82513.62</v>
+      </c>
+      <c r="K15" t="n">
+        <v>82537.37</v>
+      </c>
+      <c r="L15" t="n">
+        <v>82263.17999999999</v>
+      </c>
+      <c r="M15" t="n">
         <v>82100.46000000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>82362.60000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>84279.82000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>82385.42</v>
-      </c>
-      <c r="F15" t="n">
-        <v>82397.25</v>
-      </c>
-      <c r="G15" t="n">
-        <v>82281.37</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1100,38 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>55062.08</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>52360.83</v>
+      </c>
+      <c r="E16" t="n">
+        <v>52373.61</v>
+      </c>
+      <c r="F16" t="n">
+        <v>52176.82</v>
+      </c>
+      <c r="G16" t="n">
+        <v>52207.82</v>
+      </c>
+      <c r="H16" t="n">
+        <v>52465.04</v>
+      </c>
+      <c r="I16" t="n">
+        <v>52559.54</v>
+      </c>
+      <c r="J16" t="n">
+        <v>52601.03</v>
+      </c>
+      <c r="K16" t="n">
+        <v>52479.86</v>
+      </c>
+      <c r="L16" t="n">
+        <v>52335.43</v>
+      </c>
+      <c r="M16" t="n">
         <v>52189.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>52658.03</v>
-      </c>
-      <c r="D16" t="n">
-        <v>53603.08</v>
-      </c>
-      <c r="E16" t="n">
-        <v>52693.15</v>
-      </c>
-      <c r="F16" t="n">
-        <v>52132.55</v>
-      </c>
-      <c r="G16" t="n">
-        <v>52224.51</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1141,38 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>281730.16</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>263330.22</v>
+      </c>
+      <c r="E17" t="n">
+        <v>260438.59</v>
+      </c>
+      <c r="F17" t="n">
+        <v>261200.32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>261066.59</v>
+      </c>
+      <c r="H17" t="n">
+        <v>261092.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>260870.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>260824.16</v>
+      </c>
+      <c r="K17" t="n">
+        <v>260737.62</v>
+      </c>
+      <c r="L17" t="n">
+        <v>260864.94</v>
+      </c>
+      <c r="M17" t="n">
         <v>260632.13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>260117.32</v>
-      </c>
-      <c r="D17" t="n">
-        <v>266230.88</v>
-      </c>
-      <c r="E17" t="n">
-        <v>261296.01</v>
-      </c>
-      <c r="F17" t="n">
-        <v>240537.51</v>
-      </c>
-      <c r="G17" t="n">
-        <v>221751.43</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1182,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>14993.7</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>16182.92</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16025.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15748.17</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15401.92</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15062.04</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15533.79</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15130.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16109.63</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15013.05</v>
+      </c>
+      <c r="M18" t="n">
         <v>15790.61</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15651.56</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16510.82</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16067.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15950.69</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1016.69</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1223,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>85623.34</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>85455.85000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>88670.83</v>
+      </c>
+      <c r="F19" t="n">
+        <v>88823.83</v>
+      </c>
+      <c r="G19" t="n">
+        <v>91182.07000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>91428.73</v>
+      </c>
+      <c r="I19" t="n">
+        <v>91227.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>90922.13</v>
+      </c>
+      <c r="K19" t="n">
+        <v>83531.08</v>
+      </c>
+      <c r="L19" t="n">
+        <v>80782.25999999999</v>
+      </c>
+      <c r="M19" t="n">
         <v>80764.67</v>
-      </c>
-      <c r="C19" t="n">
-        <v>80802.24000000001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>83153.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>80679.19</v>
-      </c>
-      <c r="F19" t="n">
-        <v>80616.22</v>
-      </c>
-      <c r="G19" t="n">
-        <v>84570.73</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1264,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>84223.53999999999</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>83644.95</v>
+      </c>
+      <c r="E20" t="n">
+        <v>84041.56</v>
+      </c>
+      <c r="F20" t="n">
+        <v>83641.81</v>
+      </c>
+      <c r="G20" t="n">
+        <v>83748.97</v>
+      </c>
+      <c r="H20" t="n">
+        <v>83817.92</v>
+      </c>
+      <c r="I20" t="n">
+        <v>83870.86</v>
+      </c>
+      <c r="J20" t="n">
+        <v>84140.42</v>
+      </c>
+      <c r="K20" t="n">
+        <v>77204.50999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>77081.98</v>
+      </c>
+      <c r="M20" t="n">
         <v>76839.92999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>76747.88</v>
-      </c>
-      <c r="D20" t="n">
-        <v>79130.28999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>77350.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>77359.39</v>
-      </c>
-      <c r="G20" t="n">
-        <v>77187.14</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1305,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>543283.66</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>563957.96</v>
+      </c>
+      <c r="E21" t="n">
+        <v>630396.21</v>
+      </c>
+      <c r="F21" t="n">
+        <v>624578.16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>623635.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>624270.58</v>
+      </c>
+      <c r="I21" t="n">
+        <v>616904.14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>601507.99</v>
+      </c>
+      <c r="K21" t="n">
+        <v>529055.86</v>
+      </c>
+      <c r="L21" t="n">
+        <v>494312.86</v>
+      </c>
+      <c r="M21" t="n">
         <v>483791.34</v>
-      </c>
-      <c r="C21" t="n">
-        <v>473467.11</v>
-      </c>
-      <c r="D21" t="n">
-        <v>482879.94</v>
-      </c>
-      <c r="E21" t="n">
-        <v>477098.69</v>
-      </c>
-      <c r="F21" t="n">
-        <v>508787.79</v>
-      </c>
-      <c r="G21" t="n">
-        <v>546483.3100000001</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1346,40 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>109272.56</v>
+      </c>
+      <c r="C22" t="n">
+        <v>109035.91</v>
+      </c>
+      <c r="D22" t="n">
+        <v>108962.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>109328.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>109170.21</v>
+      </c>
+      <c r="G22" t="n">
+        <v>109371.55</v>
+      </c>
+      <c r="H22" t="n">
+        <v>108947.23</v>
+      </c>
+      <c r="I22" t="n">
+        <v>109531.03</v>
+      </c>
+      <c r="J22" t="n">
+        <v>108937.67</v>
+      </c>
+      <c r="K22" t="n">
+        <v>109293.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>109446.95</v>
+      </c>
+      <c r="M22" t="n">
         <v>108811.32</v>
-      </c>
-      <c r="C22" t="n">
-        <v>106070.43</v>
-      </c>
-      <c r="D22" t="n">
-        <v>108545.6</v>
-      </c>
-      <c r="E22" t="n">
-        <v>101381.64</v>
-      </c>
-      <c r="F22" t="n">
-        <v>104429.58</v>
-      </c>
-      <c r="G22" t="n">
-        <v>111327.4</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1389,40 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>171937.25</v>
+      </c>
+      <c r="C23" t="n">
+        <v>171878.09</v>
+      </c>
+      <c r="D23" t="n">
+        <v>142182.1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>141906.13</v>
+      </c>
+      <c r="F23" t="n">
+        <v>142038.74</v>
+      </c>
+      <c r="G23" t="n">
+        <v>142086.12</v>
+      </c>
+      <c r="H23" t="n">
+        <v>202071.64</v>
+      </c>
+      <c r="I23" t="n">
+        <v>202077.61</v>
+      </c>
+      <c r="J23" t="n">
+        <v>201954.47</v>
+      </c>
+      <c r="K23" t="n">
+        <v>202046.23</v>
+      </c>
+      <c r="L23" t="n">
+        <v>202163.93</v>
+      </c>
+      <c r="M23" t="n">
         <v>201935.94</v>
-      </c>
-      <c r="C23" t="n">
-        <v>201922.69</v>
-      </c>
-      <c r="D23" t="n">
-        <v>206727.67</v>
-      </c>
-      <c r="E23" t="n">
-        <v>202092.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>202116.84</v>
-      </c>
-      <c r="G23" t="n">
-        <v>202030.75</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1432,40 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>2176293.29</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2128678.99</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2125656.99</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2128070.89</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1949476.81</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1901068.39</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1899628.65</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1898800.17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1700136.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1698360.68</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1698891.21</v>
+      </c>
+      <c r="M24" t="n">
         <v>1701309.96</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1700061.53</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1739091.15</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1699745.63</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1700707.84</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1698590.31</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1475,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>15344.86</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15357.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12353.54</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12313.98</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12308.22</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12276.17</v>
+      </c>
+      <c r="H25" t="n">
+        <v>12304.56</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12302.13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12337.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12351.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>12356.92</v>
+      </c>
+      <c r="M25" t="n">
         <v>12332.89</v>
-      </c>
-      <c r="C25" t="n">
-        <v>12327.64</v>
-      </c>
-      <c r="D25" t="n">
-        <v>12582.31</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12360.6</v>
-      </c>
-      <c r="F25" t="n">
-        <v>12323.27</v>
-      </c>
-      <c r="G25" t="n">
-        <v>12330.04</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1518,40 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>207.54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>209.95</v>
+      </c>
+      <c r="D26" t="n">
+        <v>214.72</v>
+      </c>
+      <c r="E26" t="n">
+        <v>210.16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>190.72</v>
+      </c>
+      <c r="G26" t="n">
+        <v>209.01</v>
+      </c>
+      <c r="H26" t="n">
+        <v>193.43</v>
+      </c>
+      <c r="I26" t="n">
+        <v>198.45</v>
+      </c>
+      <c r="J26" t="n">
+        <v>196.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>185.23</v>
+      </c>
+      <c r="L26" t="n">
+        <v>216.06</v>
+      </c>
+      <c r="M26" t="n">
         <v>207.72</v>
-      </c>
-      <c r="C26" t="n">
-        <v>183.31</v>
-      </c>
-      <c r="D26" t="n">
-        <v>222.4</v>
-      </c>
-      <c r="E26" t="n">
-        <v>209.58</v>
-      </c>
-      <c r="F26" t="n">
-        <v>206.64</v>
-      </c>
-      <c r="G26" t="n">
-        <v>200.87</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1561,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>85120.96000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>85281.75999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>78108.13</v>
+      </c>
+      <c r="E27" t="n">
+        <v>77839.28999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>73093.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>70925.27</v>
+      </c>
+      <c r="H27" t="n">
+        <v>74109.75999999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>65393.38</v>
+      </c>
+      <c r="J27" t="n">
+        <v>65527.59</v>
+      </c>
+      <c r="K27" t="n">
+        <v>62183.13</v>
+      </c>
+      <c r="L27" t="n">
+        <v>52189.51</v>
+      </c>
+      <c r="M27" t="n">
         <v>52045.21</v>
-      </c>
-      <c r="C27" t="n">
-        <v>47000.45</v>
-      </c>
-      <c r="D27" t="n">
-        <v>48017.84</v>
-      </c>
-      <c r="E27" t="n">
-        <v>56944.72</v>
-      </c>
-      <c r="F27" t="n">
-        <v>57069.45</v>
-      </c>
-      <c r="G27" t="n">
-        <v>59181.3</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1604,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>246682.29</v>
+      </c>
+      <c r="C28" t="n">
+        <v>246972.87</v>
+      </c>
+      <c r="D28" t="n">
+        <v>196486.76</v>
+      </c>
+      <c r="E28" t="n">
+        <v>196984.82</v>
+      </c>
+      <c r="F28" t="n">
+        <v>196677.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>196875.64</v>
+      </c>
+      <c r="H28" t="n">
+        <v>196689.55</v>
+      </c>
+      <c r="I28" t="n">
+        <v>196527.92</v>
+      </c>
+      <c r="J28" t="n">
+        <v>192092.94</v>
+      </c>
+      <c r="K28" t="n">
+        <v>191998.89</v>
+      </c>
+      <c r="L28" t="n">
+        <v>176264.56</v>
+      </c>
+      <c r="M28" t="n">
         <v>176414.37</v>
-      </c>
-      <c r="C28" t="n">
-        <v>176170.35</v>
-      </c>
-      <c r="D28" t="n">
-        <v>180420.72</v>
-      </c>
-      <c r="E28" t="n">
-        <v>176018.14</v>
-      </c>
-      <c r="F28" t="n">
-        <v>176012.25</v>
-      </c>
-      <c r="G28" t="n">
-        <v>184290.27</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1647,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>13156.36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>13822.98</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17669.17</v>
+      </c>
+      <c r="E29" t="n">
+        <v>18493.48</v>
+      </c>
+      <c r="F29" t="n">
+        <v>18342.92</v>
+      </c>
+      <c r="G29" t="n">
+        <v>18257.18</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21843.78</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21841.39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>21849.16</v>
+      </c>
+      <c r="K29" t="n">
+        <v>21721.54</v>
+      </c>
+      <c r="L29" t="n">
+        <v>21537.56</v>
+      </c>
+      <c r="M29" t="n">
         <v>18975.35</v>
-      </c>
-      <c r="C29" t="n">
-        <v>18968.66</v>
-      </c>
-      <c r="D29" t="n">
-        <v>18902.51</v>
-      </c>
-      <c r="E29" t="n">
-        <v>18372.39</v>
-      </c>
-      <c r="F29" t="n">
-        <v>18634.31</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19845.96</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1690,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>1515.67</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1523.69</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1779.92</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1774.15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1782.04</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1779.16</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1771.85</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1770.44</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1772.34</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1780.13</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1768.09</v>
+      </c>
+      <c r="M30" t="n">
         <v>1766.03</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1689.66</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1724.27</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1674.26</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1688.57</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1688.44</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1733,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>8237.93</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8365.32</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8254.389999999999</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12904.01</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12935.87</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12844.11</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12872.22</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12946.63</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10648.04</v>
+      </c>
+      <c r="K31" t="n">
+        <v>10740.69</v>
+      </c>
+      <c r="L31" t="n">
+        <v>10837.76</v>
+      </c>
+      <c r="M31" t="n">
         <v>10785.2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10630.38</v>
-      </c>
-      <c r="D31" t="n">
-        <v>10999.77</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10723.46</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10649.5</v>
-      </c>
-      <c r="G31" t="n">
-        <v>10699.56</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1776,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>5651.52</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5755.53</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5757.71</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5724.26</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5687.61</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5660.52</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5694.02</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5652.74</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5690.18</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5668.11</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5688.93</v>
+      </c>
+      <c r="M32" t="n">
         <v>5672.71</v>
-      </c>
-      <c r="C32" t="n">
-        <v>5739.04</v>
-      </c>
-      <c r="D32" t="n">
-        <v>5777.3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5671.12</v>
-      </c>
-      <c r="F32" t="n">
-        <v>5699.48</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5713.18</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1819,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>11156.19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11149.77</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11128.7</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11126.37</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9254.129999999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9328.51</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9285.51</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9268.23</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9286.690000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9248.67</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9236.809999999999</v>
+      </c>
+      <c r="M33" t="n">
         <v>9331.18</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9343.690000000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>9447.68</v>
-      </c>
-      <c r="E33" t="n">
-        <v>17837.76</v>
-      </c>
-      <c r="F33" t="n">
-        <v>17840.32</v>
-      </c>
-      <c r="G33" t="n">
-        <v>17756.17</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1862,38 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>80672.07000000001</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>80650.71000000001</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80520.37</v>
+      </c>
+      <c r="F34" t="n">
+        <v>80635.67999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>80573.66</v>
+      </c>
+      <c r="H34" t="n">
+        <v>80821.64</v>
+      </c>
+      <c r="I34" t="n">
+        <v>80699.92</v>
+      </c>
+      <c r="J34" t="n">
+        <v>80722.99000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>80806</v>
+      </c>
+      <c r="L34" t="n">
+        <v>80755.10000000001</v>
+      </c>
+      <c r="M34" t="n">
         <v>80850.17999999999</v>
-      </c>
-      <c r="C34" t="n">
-        <v>80708.91</v>
-      </c>
-      <c r="D34" t="n">
-        <v>82439.89</v>
-      </c>
-      <c r="E34" t="n">
-        <v>80682.28999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>80754.58</v>
-      </c>
-      <c r="G34" t="n">
-        <v>80533.14999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1903,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>97188</v>
+      </c>
+      <c r="C35" t="n">
+        <v>97435.21000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>96966.10000000001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>97026.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>97516.52</v>
+      </c>
+      <c r="G35" t="n">
+        <v>97194.83</v>
+      </c>
+      <c r="H35" t="n">
+        <v>97128.85000000001</v>
+      </c>
+      <c r="I35" t="n">
+        <v>97429.53</v>
+      </c>
+      <c r="J35" t="n">
+        <v>97000.10000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>97207.05</v>
+      </c>
+      <c r="L35" t="n">
+        <v>97417.99000000001</v>
+      </c>
+      <c r="M35" t="n">
         <v>97021.21000000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>97021.52</v>
-      </c>
-      <c r="D35" t="n">
-        <v>99482.28999999999</v>
-      </c>
-      <c r="E35" t="n">
-        <v>97498.46000000001</v>
-      </c>
-      <c r="F35" t="n">
-        <v>96990.74000000001</v>
-      </c>
-      <c r="G35" t="n">
-        <v>97507.71000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1946,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>13909.42</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14034.81</v>
+      </c>
+      <c r="D36" t="n">
+        <v>13924.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14005.69</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13920.84</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13978.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>17083.92</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17023.38</v>
+      </c>
+      <c r="J36" t="n">
+        <v>16997.81</v>
+      </c>
+      <c r="K36" t="n">
+        <v>16079.53</v>
+      </c>
+      <c r="L36" t="n">
+        <v>18902.23</v>
+      </c>
+      <c r="M36" t="n">
         <v>18865.63</v>
-      </c>
-      <c r="C36" t="n">
-        <v>18979.61</v>
-      </c>
-      <c r="D36" t="n">
-        <v>19538.21</v>
-      </c>
-      <c r="E36" t="n">
-        <v>18876.06</v>
-      </c>
-      <c r="F36" t="n">
-        <v>20481.8</v>
-      </c>
-      <c r="G36" t="n">
-        <v>24443.62</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1989,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>35865.85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35784.66</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35766.13</v>
+      </c>
+      <c r="E37" t="n">
+        <v>35836.88</v>
+      </c>
+      <c r="F37" t="n">
+        <v>35776.44</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35872.25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>35862.22</v>
+      </c>
+      <c r="I37" t="n">
+        <v>35845.83</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35871.29</v>
+      </c>
+      <c r="K37" t="n">
+        <v>35575.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>35909.38</v>
+      </c>
+      <c r="M37" t="n">
         <v>35795.43</v>
-      </c>
-      <c r="C37" t="n">
-        <v>35923.98</v>
-      </c>
-      <c r="D37" t="n">
-        <v>36712.47</v>
-      </c>
-      <c r="E37" t="n">
-        <v>108034.22</v>
-      </c>
-      <c r="F37" t="n">
-        <v>108050.8</v>
-      </c>
-      <c r="G37" t="n">
-        <v>107923.36</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2032,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>25897.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25903.55</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24428.18</v>
+      </c>
+      <c r="E38" t="n">
+        <v>23961.16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>25869.09</v>
+      </c>
+      <c r="G38" t="n">
+        <v>26062.75</v>
+      </c>
+      <c r="H38" t="n">
+        <v>26082.98</v>
+      </c>
+      <c r="I38" t="n">
+        <v>26081.09</v>
+      </c>
+      <c r="J38" t="n">
+        <v>26115.68</v>
+      </c>
+      <c r="K38" t="n">
+        <v>26079.83</v>
+      </c>
+      <c r="L38" t="n">
+        <v>26239.08</v>
+      </c>
+      <c r="M38" t="n">
         <v>25555.56</v>
-      </c>
-      <c r="C38" t="n">
-        <v>24043.62</v>
-      </c>
-      <c r="D38" t="n">
-        <v>24653.78</v>
-      </c>
-      <c r="E38" t="n">
-        <v>24229.93</v>
-      </c>
-      <c r="F38" t="n">
-        <v>23899.84</v>
-      </c>
-      <c r="G38" t="n">
-        <v>26271.72</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2075,40 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>627484.72</v>
+      </c>
+      <c r="C39" t="n">
+        <v>627541.64</v>
+      </c>
+      <c r="D39" t="n">
+        <v>627578.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>627146.88</v>
+      </c>
+      <c r="F39" t="n">
+        <v>627328.22</v>
+      </c>
+      <c r="G39" t="n">
+        <v>626928.58</v>
+      </c>
+      <c r="H39" t="n">
+        <v>607379.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>607932.61</v>
+      </c>
+      <c r="J39" t="n">
+        <v>607555.87</v>
+      </c>
+      <c r="K39" t="n">
+        <v>607912.47</v>
+      </c>
+      <c r="L39" t="n">
+        <v>571348.4</v>
+      </c>
+      <c r="M39" t="n">
         <v>571787.83</v>
-      </c>
-      <c r="C39" t="n">
-        <v>571737.74</v>
-      </c>
-      <c r="D39" t="n">
-        <v>584216.39</v>
-      </c>
-      <c r="E39" t="n">
-        <v>571948.39</v>
-      </c>
-      <c r="F39" t="n">
-        <v>591304</v>
-      </c>
-      <c r="G39" t="n">
-        <v>591626.88</v>
       </c>
     </row>
     <row r="40">
@@ -1422,122 +2118,237 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>144671</v>
+      </c>
+      <c r="C40" t="n">
+        <v>146035.78</v>
+      </c>
+      <c r="D40" t="n">
+        <v>144592.56</v>
+      </c>
+      <c r="E40" t="n">
+        <v>157754.16</v>
+      </c>
+      <c r="F40" t="n">
+        <v>156824.05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>157006.01</v>
+      </c>
+      <c r="H40" t="n">
+        <v>156635.74</v>
+      </c>
+      <c r="I40" t="n">
+        <v>155646.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>156812.67</v>
+      </c>
+      <c r="K40" t="n">
+        <v>157193.28</v>
+      </c>
+      <c r="L40" t="n">
+        <v>156123.55</v>
+      </c>
+      <c r="M40" t="n">
         <v>156969.64</v>
-      </c>
-      <c r="C40" t="n">
-        <v>157380.77</v>
-      </c>
-      <c r="D40" t="n">
-        <v>161058.24</v>
-      </c>
-      <c r="E40" t="n">
-        <v>157575.49</v>
-      </c>
-      <c r="F40" t="n">
-        <v>156462.42</v>
-      </c>
-      <c r="G40" t="n">
-        <v>156976.38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1265018.75</v>
+        <v>867068.76</v>
       </c>
       <c r="C41" t="n">
-        <v>1265083.97</v>
+        <v>866934.7</v>
       </c>
       <c r="D41" t="n">
-        <v>1224910.18</v>
-      </c>
-      <c r="E41" t="n">
-        <v>975961.91</v>
-      </c>
-      <c r="F41" t="n">
-        <v>924522.29</v>
-      </c>
-      <c r="G41" t="n">
-        <v>925416.4399999999</v>
-      </c>
+        <v>884941.74</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54013.51</v>
+        <v>1265925.81</v>
       </c>
       <c r="C42" t="n">
-        <v>53920.09</v>
+        <v>1267114.6</v>
       </c>
       <c r="D42" t="n">
-        <v>55230.04</v>
+        <v>1265721.43</v>
       </c>
       <c r="E42" t="n">
-        <v>53857.52</v>
+        <v>1267389.53</v>
       </c>
       <c r="F42" t="n">
-        <v>53902.73</v>
+        <v>1265016.54</v>
       </c>
       <c r="G42" t="n">
-        <v>61657.25</v>
+        <v>1265288.12</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1265217.48</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1266216.94</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1265931.6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1266610.38</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1264914.29</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1265018.75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222581.39</v>
+        <v>53884.9</v>
       </c>
       <c r="C43" t="n">
-        <v>221908.1</v>
+        <v>53940.11</v>
       </c>
       <c r="D43" t="n">
-        <v>224333.36</v>
+        <v>53859.2</v>
       </c>
       <c r="E43" t="n">
-        <v>215643.44</v>
+        <v>54008.9</v>
       </c>
       <c r="F43" t="n">
-        <v>215617.62</v>
+        <v>53973.67</v>
       </c>
       <c r="G43" t="n">
-        <v>216923.01</v>
+        <v>53933.62</v>
+      </c>
+      <c r="H43" t="n">
+        <v>54001.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>53904.25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>54002.58</v>
+      </c>
+      <c r="K43" t="n">
+        <v>53915.63</v>
+      </c>
+      <c r="L43" t="n">
+        <v>53925.52</v>
+      </c>
+      <c r="M43" t="n">
+        <v>54013.51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>255461.89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>283031.79</v>
+      </c>
+      <c r="D44" t="n">
+        <v>253276.3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>240487.18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>236084.43</v>
+      </c>
+      <c r="G44" t="n">
+        <v>234775.59</v>
+      </c>
+      <c r="H44" t="n">
+        <v>236192.73</v>
+      </c>
+      <c r="I44" t="n">
+        <v>234443.24</v>
+      </c>
+      <c r="J44" t="n">
+        <v>228729.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>226448.39</v>
+      </c>
+      <c r="L44" t="n">
+        <v>222847.96</v>
+      </c>
+      <c r="M44" t="n">
+        <v>222581.39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
+        <v>10729399.19</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9340049.189999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10637604.56</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9859974.52</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9679461.77</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9625799.210000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9683901.859999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9612172.73</v>
+      </c>
+      <c r="J45" t="n">
+        <v>9377901.140000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9284383.949999999</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9136766.220000001</v>
+      </c>
+      <c r="M45" t="n">
         <v>9125837.140000001</v>
-      </c>
-      <c r="C44" t="n">
-        <v>9098232.18</v>
-      </c>
-      <c r="D44" t="n">
-        <v>9197667.68</v>
-      </c>
-      <c r="E44" t="n">
-        <v>8841381.15</v>
-      </c>
-      <c r="F44" t="n">
-        <v>8840322.380000001</v>
-      </c>
-      <c r="G44" t="n">
-        <v>8893843.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TGNO4.xlsx
+++ b/backend/src/excel_handler/files/TGNO4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162595.14</v>
+        <v>136960.39</v>
       </c>
       <c r="C2" t="n">
-        <v>175154.2</v>
+        <v>137006.78</v>
       </c>
       <c r="D2" t="n">
-        <v>188161.29</v>
+        <v>139878.99</v>
       </c>
       <c r="E2" t="n">
-        <v>187889.64</v>
+        <v>137047.54</v>
       </c>
       <c r="F2" t="n">
-        <v>188446.39</v>
+        <v>147139.97</v>
       </c>
       <c r="G2" t="n">
-        <v>188049.01</v>
+        <v>147078.15</v>
       </c>
       <c r="H2" t="n">
-        <v>198217.62</v>
+        <v>146983.74</v>
       </c>
       <c r="I2" t="n">
-        <v>185369.66</v>
+        <v>147223.16</v>
       </c>
       <c r="J2" t="n">
-        <v>185428.46</v>
+        <v>176305.74</v>
       </c>
       <c r="K2" t="n">
-        <v>185097.73</v>
+        <v>176247.88</v>
       </c>
       <c r="L2" t="n">
-        <v>137210.96</v>
+        <v>183063.91</v>
       </c>
       <c r="M2" t="n">
-        <v>136960.39</v>
+        <v>217363.42</v>
+      </c>
+      <c r="N2" t="n">
+        <v>232149.43</v>
+      </c>
+      <c r="O2" t="n">
+        <v>271544.62</v>
+      </c>
+      <c r="P2" t="n">
+        <v>303792.26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>310440.08</v>
+      </c>
+      <c r="R2" t="n">
+        <v>344694.67</v>
+      </c>
+      <c r="S2" t="n">
+        <v>344682.66</v>
+      </c>
+      <c r="T2" t="n">
+        <v>344847.91</v>
+      </c>
+      <c r="U2" t="n">
+        <v>344873.85</v>
+      </c>
+      <c r="V2" t="n">
+        <v>410736.12</v>
+      </c>
+      <c r="W2" t="n">
+        <v>410525.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>411264.77</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>334143.1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>178301.97</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>144365.37</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105900.95</v>
+        <v>106029.47</v>
       </c>
       <c r="C3" t="n">
-        <v>106013.87</v>
+        <v>105343.33</v>
       </c>
       <c r="D3" t="n">
-        <v>106021.72</v>
+        <v>107807.91</v>
       </c>
       <c r="E3" t="n">
-        <v>105383.84</v>
+        <v>106143.94</v>
       </c>
       <c r="F3" t="n">
-        <v>105686.62</v>
+        <v>105682.06</v>
       </c>
       <c r="G3" t="n">
-        <v>105879.99</v>
+        <v>118469.16</v>
       </c>
       <c r="H3" t="n">
-        <v>105617.37</v>
+        <v>118404</v>
       </c>
       <c r="I3" t="n">
-        <v>105609.23</v>
+        <v>117735.9</v>
       </c>
       <c r="J3" t="n">
-        <v>105916.21</v>
+        <v>118546.01</v>
       </c>
       <c r="K3" t="n">
-        <v>105434.82</v>
+        <v>117730.4</v>
       </c>
       <c r="L3" t="n">
-        <v>105471.58</v>
+        <v>118149.92</v>
       </c>
       <c r="M3" t="n">
-        <v>106029.47</v>
+        <v>117924.63</v>
+      </c>
+      <c r="N3" t="n">
+        <v>117839.04</v>
+      </c>
+      <c r="O3" t="n">
+        <v>118532.91</v>
+      </c>
+      <c r="P3" t="n">
+        <v>118129.77</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>117823</v>
+      </c>
+      <c r="R3" t="n">
+        <v>118649.14</v>
+      </c>
+      <c r="S3" t="n">
+        <v>132190.47</v>
+      </c>
+      <c r="T3" t="n">
+        <v>131090.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>131525.82</v>
+      </c>
+      <c r="V3" t="n">
+        <v>132137.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>131895.33</v>
+      </c>
+      <c r="X3" t="n">
+        <v>131281.93</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>132174.84</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>131543.36</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>132173.9</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14549.89</v>
+        <v>19598.71</v>
       </c>
       <c r="C4" t="n">
-        <v>19650.54</v>
+        <v>19612.12</v>
       </c>
       <c r="D4" t="n">
-        <v>19573.92</v>
+        <v>20003.67</v>
       </c>
       <c r="E4" t="n">
-        <v>19622.01</v>
+        <v>19611.39</v>
       </c>
       <c r="F4" t="n">
-        <v>19569.24</v>
+        <v>19548.4</v>
       </c>
       <c r="G4" t="n">
-        <v>19541.27</v>
+        <v>19545.17</v>
       </c>
       <c r="H4" t="n">
-        <v>19544.28</v>
+        <v>19574.11</v>
       </c>
       <c r="I4" t="n">
-        <v>19529.18</v>
+        <v>19598.4</v>
       </c>
       <c r="J4" t="n">
-        <v>19542.07</v>
+        <v>19575.19</v>
       </c>
       <c r="K4" t="n">
-        <v>19598.04</v>
+        <v>19636</v>
       </c>
       <c r="L4" t="n">
-        <v>19549.07</v>
+        <v>19670.27</v>
       </c>
       <c r="M4" t="n">
-        <v>19598.71</v>
+        <v>19524.38</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19688.41</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19553.84</v>
+      </c>
+      <c r="P4" t="n">
+        <v>29501.77</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>29596.65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>29552.54</v>
+      </c>
+      <c r="S4" t="n">
+        <v>29488.64</v>
+      </c>
+      <c r="T4" t="n">
+        <v>29682.72</v>
+      </c>
+      <c r="U4" t="n">
+        <v>29561.49</v>
+      </c>
+      <c r="V4" t="n">
+        <v>29576.55</v>
+      </c>
+      <c r="W4" t="n">
+        <v>29508.7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>29752.09</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>29650.44</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29711.59</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29613.75</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59812.55</v>
+        <v>60166.94</v>
       </c>
       <c r="C5" t="n">
-        <v>60176.39</v>
+        <v>60244.36</v>
       </c>
       <c r="D5" t="n">
-        <v>59975.41</v>
+        <v>61211.68</v>
       </c>
       <c r="E5" t="n">
-        <v>60029.71</v>
+        <v>59966.49</v>
       </c>
       <c r="F5" t="n">
-        <v>60127.86</v>
+        <v>59821.96</v>
       </c>
       <c r="G5" t="n">
-        <v>60130.12</v>
+        <v>59884.79</v>
       </c>
       <c r="H5" t="n">
-        <v>59894.66</v>
+        <v>59847.72</v>
       </c>
       <c r="I5" t="n">
-        <v>59911.21</v>
+        <v>59901.08</v>
       </c>
       <c r="J5" t="n">
-        <v>60180.27</v>
+        <v>60157.62</v>
       </c>
       <c r="K5" t="n">
-        <v>59824.52</v>
+        <v>60190.87</v>
       </c>
       <c r="L5" t="n">
-        <v>59921.46</v>
+        <v>60016.13</v>
       </c>
       <c r="M5" t="n">
-        <v>60166.94</v>
+        <v>60216.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>59783.12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>60039.91</v>
+      </c>
+      <c r="P5" t="n">
+        <v>60099.71</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>59844.61</v>
+      </c>
+      <c r="R5" t="n">
+        <v>59724.39</v>
+      </c>
+      <c r="S5" t="n">
+        <v>59760.99</v>
+      </c>
+      <c r="T5" t="n">
+        <v>59301.35</v>
+      </c>
+      <c r="U5" t="n">
+        <v>59678.89</v>
+      </c>
+      <c r="V5" t="n">
+        <v>59946.97</v>
+      </c>
+      <c r="W5" t="n">
+        <v>60010.44</v>
+      </c>
+      <c r="X5" t="n">
+        <v>59996.04</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>60043.61</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>59779.69</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>60044.85</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155546.84</v>
+        <v>113891.06</v>
       </c>
       <c r="C6" t="n">
-        <v>155895.1</v>
+        <v>113678.55</v>
       </c>
       <c r="D6" t="n">
-        <v>155849</v>
+        <v>90823.02</v>
       </c>
       <c r="E6" t="n">
-        <v>155748.42</v>
+        <v>88622.08</v>
       </c>
       <c r="F6" t="n">
-        <v>155038.93</v>
+        <v>89403.09</v>
       </c>
       <c r="G6" t="n">
-        <v>156003.03</v>
+        <v>88930.64</v>
       </c>
       <c r="H6" t="n">
-        <v>155329.96</v>
+        <v>88718.64</v>
       </c>
       <c r="I6" t="n">
-        <v>113807.71</v>
+        <v>88734.98</v>
       </c>
       <c r="J6" t="n">
-        <v>113671.28</v>
+        <v>88988.09</v>
       </c>
       <c r="K6" t="n">
-        <v>113510.09</v>
+        <v>89334.89</v>
       </c>
       <c r="L6" t="n">
-        <v>113543.95</v>
+        <v>88824.99000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>113891.06</v>
+        <v>89313.28999999999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>89314.98</v>
+      </c>
+      <c r="O6" t="n">
+        <v>88848.50999999999</v>
+      </c>
+      <c r="P6" t="n">
+        <v>88605.53999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>88523.36</v>
+      </c>
+      <c r="R6" t="n">
+        <v>89401.14999999999</v>
+      </c>
+      <c r="S6" t="n">
+        <v>88757.71000000001</v>
+      </c>
+      <c r="T6" t="n">
+        <v>87938.66</v>
+      </c>
+      <c r="U6" t="n">
+        <v>88735.02</v>
+      </c>
+      <c r="V6" t="n">
+        <v>89038.14999999999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>88530.52</v>
+      </c>
+      <c r="X6" t="n">
+        <v>89182.92</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>88935.11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>88637.45</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>89458</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47547.14</v>
+        <v>52514.41</v>
       </c>
       <c r="C7" t="n">
-        <v>47583.01</v>
+        <v>52639.67</v>
       </c>
       <c r="D7" t="n">
-        <v>52577.63</v>
+        <v>53688.42</v>
       </c>
       <c r="E7" t="n">
-        <v>52663.05</v>
+        <v>52825.76</v>
       </c>
       <c r="F7" t="n">
-        <v>52637.31</v>
+        <v>52688.66</v>
       </c>
       <c r="G7" t="n">
-        <v>52559.33</v>
+        <v>52668.63</v>
       </c>
       <c r="H7" t="n">
-        <v>52733.99</v>
+        <v>52703.3</v>
       </c>
       <c r="I7" t="n">
-        <v>52580.29</v>
+        <v>52567.71</v>
       </c>
       <c r="J7" t="n">
-        <v>52734.28</v>
+        <v>52626.57</v>
       </c>
       <c r="K7" t="n">
-        <v>52641.61</v>
+        <v>52654.78</v>
       </c>
       <c r="L7" t="n">
-        <v>52821.1</v>
+        <v>52703.92</v>
       </c>
       <c r="M7" t="n">
-        <v>52514.41</v>
+        <v>52533.36</v>
+      </c>
+      <c r="N7" t="n">
+        <v>52742.03</v>
+      </c>
+      <c r="O7" t="n">
+        <v>52499.51</v>
+      </c>
+      <c r="P7" t="n">
+        <v>52711.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>52799.33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>52727.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>52766.84</v>
+      </c>
+      <c r="T7" t="n">
+        <v>52346.45</v>
+      </c>
+      <c r="U7" t="n">
+        <v>52880.13</v>
+      </c>
+      <c r="V7" t="n">
+        <v>52637.08</v>
+      </c>
+      <c r="W7" t="n">
+        <v>52611.21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>52733.1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>52740.42</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>52552.77</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>52646.65</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3508.12</v>
+        <v>3463.36</v>
       </c>
       <c r="C8" t="n">
-        <v>3526.11</v>
+        <v>3478.26</v>
       </c>
       <c r="D8" t="n">
-        <v>3501.35</v>
+        <v>3576.11</v>
       </c>
       <c r="E8" t="n">
-        <v>3478.16</v>
+        <v>3499.05</v>
       </c>
       <c r="F8" t="n">
-        <v>3468.24</v>
+        <v>3522.52</v>
       </c>
       <c r="G8" t="n">
-        <v>3484.78</v>
+        <v>3497.43</v>
       </c>
       <c r="H8" t="n">
-        <v>3529.23</v>
+        <v>3472</v>
       </c>
       <c r="I8" t="n">
-        <v>3523.24</v>
+        <v>3490.16</v>
       </c>
       <c r="J8" t="n">
-        <v>3533.32</v>
+        <v>3495.97</v>
       </c>
       <c r="K8" t="n">
-        <v>3510.39</v>
+        <v>3482.07</v>
       </c>
       <c r="L8" t="n">
-        <v>3537.14</v>
+        <v>3502.12</v>
       </c>
       <c r="M8" t="n">
-        <v>3463.36</v>
+        <v>3509.62</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3492.03</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3514.13</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3501.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3484.71</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3479.48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3497.23</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3483.86</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3519.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3466.47</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3514.07</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3522.44</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3500.96</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3467.76</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3493.31</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2254534.9</v>
+        <v>2253337.71</v>
       </c>
       <c r="C9" t="n">
-        <v>2253545.88</v>
+        <v>2252215.49</v>
       </c>
       <c r="D9" t="n">
-        <v>2253712.06</v>
+        <v>2303295.92</v>
       </c>
       <c r="E9" t="n">
-        <v>2254583.86</v>
+        <v>2253997.84</v>
       </c>
       <c r="F9" t="n">
-        <v>2254129.98</v>
+        <v>2260137.51</v>
       </c>
       <c r="G9" t="n">
-        <v>2254436.59</v>
+        <v>2261821.93</v>
       </c>
       <c r="H9" t="n">
-        <v>2254506.91</v>
+        <v>2260896.27</v>
       </c>
       <c r="I9" t="n">
-        <v>2252618.79</v>
+        <v>2260825.73</v>
       </c>
       <c r="J9" t="n">
-        <v>2252745.89</v>
+        <v>2261704.06</v>
       </c>
       <c r="K9" t="n">
-        <v>2253100.36</v>
+        <v>2261334.67</v>
       </c>
       <c r="L9" t="n">
-        <v>2253758.82</v>
+        <v>2261490.72</v>
       </c>
       <c r="M9" t="n">
-        <v>2253337.71</v>
+        <v>2260451.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2260423.25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2260874.06</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2262525.17</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2111961.76</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2111843.99</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2111500.65</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2091347.48</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2111765.74</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2111234.98</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2111240.84</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2110028.84</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2112515.77</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2111134.57</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2112128.81</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4047.73</v>
+        <v>487.88</v>
       </c>
       <c r="C10" t="n">
-        <v>4047.65</v>
+        <v>487.86</v>
       </c>
       <c r="D10" t="n">
-        <v>4041.51</v>
+        <v>503.18</v>
       </c>
       <c r="E10" t="n">
-        <v>4067.34</v>
+        <v>490.43</v>
       </c>
       <c r="F10" t="n">
-        <v>4060.98</v>
+        <v>487.69</v>
       </c>
       <c r="G10" t="n">
-        <v>4061.31</v>
+        <v>489.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4055.26</v>
+        <v>488.69</v>
       </c>
       <c r="I10" t="n">
-        <v>4057.79</v>
+        <v>488.87</v>
       </c>
       <c r="J10" t="n">
-        <v>4066.81</v>
+        <v>488.71</v>
       </c>
       <c r="K10" t="n">
-        <v>489.48</v>
+        <v>491.77</v>
       </c>
       <c r="L10" t="n">
-        <v>491.57</v>
+        <v>2484.72</v>
       </c>
       <c r="M10" t="n">
-        <v>487.88</v>
+        <v>2486.81</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2481.68</v>
+      </c>
+      <c r="O10" t="n">
+        <v>836.0599999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>774.98</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>781.55</v>
+      </c>
+      <c r="R10" t="n">
+        <v>778.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>782.49</v>
+      </c>
+      <c r="T10" t="n">
+        <v>768.77</v>
+      </c>
+      <c r="U10" t="n">
+        <v>781.14</v>
+      </c>
+      <c r="V10" t="n">
+        <v>775.79</v>
+      </c>
+      <c r="W10" t="n">
+        <v>781.08</v>
+      </c>
+      <c r="X10" t="n">
+        <v>779.1900000000001</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>778.26</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>781.47</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>743.3</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173253.59</v>
+        <v>169278.4</v>
       </c>
       <c r="C11" t="n">
-        <v>167767.16</v>
+        <v>164042.25</v>
       </c>
       <c r="D11" t="n">
-        <v>168415.99</v>
+        <v>154904.56</v>
       </c>
       <c r="E11" t="n">
-        <v>181919.6</v>
+        <v>127110.2</v>
       </c>
       <c r="F11" t="n">
-        <v>182528.74</v>
+        <v>126968.21</v>
       </c>
       <c r="G11" t="n">
-        <v>181887.77</v>
+        <v>127396.5</v>
       </c>
       <c r="H11" t="n">
-        <v>182253.28</v>
+        <v>127456.7</v>
       </c>
       <c r="I11" t="n">
-        <v>181810.07</v>
+        <v>127005.13</v>
       </c>
       <c r="J11" t="n">
-        <v>168885.57</v>
+        <v>127403.7</v>
       </c>
       <c r="K11" t="n">
-        <v>169061.14</v>
+        <v>127070.04</v>
       </c>
       <c r="L11" t="n">
-        <v>168899.37</v>
+        <v>127322.02</v>
       </c>
       <c r="M11" t="n">
-        <v>169278.4</v>
+        <v>143135.67</v>
+      </c>
+      <c r="N11" t="n">
+        <v>148203.01</v>
+      </c>
+      <c r="O11" t="n">
+        <v>154045.09</v>
+      </c>
+      <c r="P11" t="n">
+        <v>162310.87</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>132517.45</v>
+      </c>
+      <c r="R11" t="n">
+        <v>131974.43</v>
+      </c>
+      <c r="S11" t="n">
+        <v>132511.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>111784.84</v>
+      </c>
+      <c r="U11" t="n">
+        <v>112694.49</v>
+      </c>
+      <c r="V11" t="n">
+        <v>113167.79</v>
+      </c>
+      <c r="W11" t="n">
+        <v>112372.72</v>
+      </c>
+      <c r="X11" t="n">
+        <v>112244.73</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>112105.87</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>120065.06</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>120039.98</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>174305.59</v>
+        <v>189680.98</v>
       </c>
       <c r="C12" t="n">
-        <v>174378.3</v>
+        <v>189770.12</v>
       </c>
       <c r="D12" t="n">
-        <v>174333.96</v>
+        <v>194091.59</v>
       </c>
       <c r="E12" t="n">
-        <v>178618.54</v>
+        <v>189690.12</v>
       </c>
       <c r="F12" t="n">
-        <v>189738.7</v>
+        <v>189730.81</v>
       </c>
       <c r="G12" t="n">
-        <v>189783.18</v>
+        <v>189723.4</v>
       </c>
       <c r="H12" t="n">
-        <v>189738.28</v>
+        <v>185713.95</v>
       </c>
       <c r="I12" t="n">
-        <v>189799.81</v>
+        <v>185741.89</v>
       </c>
       <c r="J12" t="n">
-        <v>189674</v>
+        <v>185823.08</v>
       </c>
       <c r="K12" t="n">
-        <v>189785.38</v>
+        <v>140560.34</v>
       </c>
       <c r="L12" t="n">
-        <v>189651.84</v>
+        <v>140523.56</v>
       </c>
       <c r="M12" t="n">
-        <v>189680.98</v>
+        <v>96701.48</v>
+      </c>
+      <c r="N12" t="n">
+        <v>77510.89</v>
+      </c>
+      <c r="O12" t="n">
+        <v>77411.67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>77494.31</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>77582.60000000001</v>
+      </c>
+      <c r="R12" t="n">
+        <v>77454.85000000001</v>
+      </c>
+      <c r="S12" t="n">
+        <v>86457.57000000001</v>
+      </c>
+      <c r="T12" t="n">
+        <v>93337.09</v>
+      </c>
+      <c r="U12" t="n">
+        <v>94176.02</v>
+      </c>
+      <c r="V12" t="n">
+        <v>97048.58</v>
+      </c>
+      <c r="W12" t="n">
+        <v>105183.63</v>
+      </c>
+      <c r="X12" t="n">
+        <v>112882.95</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>112932</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>122033.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>121840.23</v>
       </c>
     </row>
     <row r="13">
@@ -975,1209 +1507,2393 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239473.66</v>
+        <v>233267.53</v>
       </c>
       <c r="C13" t="n">
-        <v>239553.76</v>
+        <v>233357.72</v>
       </c>
       <c r="D13" t="n">
-        <v>237483.51</v>
+        <v>238624.84</v>
       </c>
       <c r="E13" t="n">
-        <v>237497.9</v>
+        <v>233252</v>
       </c>
       <c r="F13" t="n">
-        <v>237252.39</v>
+        <v>233367.11</v>
       </c>
       <c r="G13" t="n">
-        <v>233297.58</v>
+        <v>233389.69</v>
       </c>
       <c r="H13" t="n">
-        <v>233260.45</v>
+        <v>233353.44</v>
       </c>
       <c r="I13" t="n">
-        <v>233302</v>
+        <v>233366.4</v>
       </c>
       <c r="J13" t="n">
-        <v>233357.82</v>
+        <v>233486.25</v>
       </c>
       <c r="K13" t="n">
-        <v>233559.82</v>
+        <v>233211.76</v>
       </c>
       <c r="L13" t="n">
-        <v>233525.57</v>
+        <v>233209.75</v>
       </c>
       <c r="M13" t="n">
-        <v>233267.53</v>
+        <v>233309.4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>233278.03</v>
+      </c>
+      <c r="O13" t="n">
+        <v>224334.08</v>
+      </c>
+      <c r="P13" t="n">
+        <v>217343.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>210093.76</v>
+      </c>
+      <c r="R13" t="n">
+        <v>209859.61</v>
+      </c>
+      <c r="S13" t="n">
+        <v>209978.83</v>
+      </c>
+      <c r="T13" t="n">
+        <v>208059.43</v>
+      </c>
+      <c r="U13" t="n">
+        <v>209901.56</v>
+      </c>
+      <c r="V13" t="n">
+        <v>210029.99</v>
+      </c>
+      <c r="W13" t="n">
+        <v>210165.14</v>
+      </c>
+      <c r="X13" t="n">
+        <v>209858.11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>210181.49</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>209800.31</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>209846.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>129884.71</v>
-      </c>
+          <t>Compass Crecimiento</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>129519.06</v>
-      </c>
-      <c r="E14" t="n">
-        <v>130017.71</v>
-      </c>
-      <c r="F14" t="n">
-        <v>130505.84</v>
-      </c>
-      <c r="G14" t="n">
-        <v>129862.04</v>
-      </c>
-      <c r="H14" t="n">
-        <v>129173.01</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>129892.63</v>
+        <v>14218.95</v>
       </c>
       <c r="J14" t="n">
-        <v>129086.74</v>
+        <v>39474.6</v>
       </c>
       <c r="K14" t="n">
-        <v>130157.27</v>
+        <v>39206.3</v>
       </c>
       <c r="L14" t="n">
-        <v>129596.26</v>
+        <v>37927.8</v>
       </c>
       <c r="M14" t="n">
-        <v>129586.24</v>
+        <v>37878.71</v>
+      </c>
+      <c r="N14" t="n">
+        <v>46874.74</v>
+      </c>
+      <c r="O14" t="n">
+        <v>46722.71</v>
+      </c>
+      <c r="P14" t="n">
+        <v>46514.6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>46304.37</v>
+      </c>
+      <c r="R14" t="n">
+        <v>46174.67</v>
+      </c>
+      <c r="S14" t="n">
+        <v>45429.88</v>
+      </c>
+      <c r="T14" t="n">
+        <v>44938.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>46262.36</v>
+      </c>
+      <c r="V14" t="n">
+        <v>45952.96</v>
+      </c>
+      <c r="W14" t="n">
+        <v>45875.93</v>
+      </c>
+      <c r="X14" t="n">
+        <v>47707.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>46966.52</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>47789.51</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>32955.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82377.64999999999</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>129586.24</v>
+      </c>
+      <c r="C15" t="n">
+        <v>129640.89</v>
+      </c>
       <c r="D15" t="n">
-        <v>82522.14</v>
+        <v>132768.95</v>
       </c>
       <c r="E15" t="n">
-        <v>82182.83</v>
+        <v>129857.5</v>
       </c>
       <c r="F15" t="n">
-        <v>82282.49000000001</v>
+        <v>130295.74</v>
       </c>
       <c r="G15" t="n">
-        <v>82060.59</v>
+        <v>129422.18</v>
       </c>
       <c r="H15" t="n">
-        <v>82285.17</v>
+        <v>129327.12</v>
       </c>
       <c r="I15" t="n">
-        <v>82304.07000000001</v>
+        <v>130207.24</v>
       </c>
       <c r="J15" t="n">
-        <v>82513.62</v>
+        <v>129627.24</v>
       </c>
       <c r="K15" t="n">
-        <v>82537.37</v>
+        <v>129197.52</v>
       </c>
       <c r="L15" t="n">
-        <v>82263.17999999999</v>
+        <v>129788.79</v>
       </c>
       <c r="M15" t="n">
-        <v>82100.46000000001</v>
+        <v>130264.27</v>
+      </c>
+      <c r="N15" t="n">
+        <v>129783.91</v>
+      </c>
+      <c r="O15" t="n">
+        <v>129476.92</v>
+      </c>
+      <c r="P15" t="n">
+        <v>130207.26</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>129807.71</v>
+      </c>
+      <c r="R15" t="n">
+        <v>130049.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>130403.02</v>
+      </c>
+      <c r="T15" t="n">
+        <v>128487.43</v>
+      </c>
+      <c r="U15" t="n">
+        <v>129641.89</v>
+      </c>
+      <c r="V15" t="n">
+        <v>129913.89</v>
+      </c>
+      <c r="W15" t="n">
+        <v>129963.67</v>
+      </c>
+      <c r="X15" t="n">
+        <v>130479.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>130536.46</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>130349.06</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>129893.93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55062.08</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>82100.46000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>82362.60000000001</v>
+      </c>
       <c r="D16" t="n">
-        <v>52360.83</v>
+        <v>84279.82000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>52373.61</v>
+        <v>82385.42</v>
       </c>
       <c r="F16" t="n">
-        <v>52176.82</v>
+        <v>82397.25</v>
       </c>
       <c r="G16" t="n">
-        <v>52207.82</v>
+        <v>82281.37</v>
       </c>
       <c r="H16" t="n">
-        <v>52465.04</v>
+        <v>82356.46000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>52559.54</v>
+        <v>82046.56</v>
       </c>
       <c r="J16" t="n">
-        <v>52601.03</v>
+        <v>82516.41</v>
       </c>
       <c r="K16" t="n">
-        <v>52479.86</v>
+        <v>82150.03999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>52335.43</v>
+        <v>82363.42999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>52189.3</v>
+        <v>82275.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>82470.45</v>
+      </c>
+      <c r="O16" t="n">
+        <v>82439.60000000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>82457.36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>81982.60000000001</v>
+      </c>
+      <c r="R16" t="n">
+        <v>82060.05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>82470.85000000001</v>
+      </c>
+      <c r="T16" t="n">
+        <v>81552.83</v>
+      </c>
+      <c r="U16" t="n">
+        <v>82188.58</v>
+      </c>
+      <c r="V16" t="n">
+        <v>82103.17</v>
+      </c>
+      <c r="W16" t="n">
+        <v>82027.89</v>
+      </c>
+      <c r="X16" t="n">
+        <v>81986.96000000001</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>82073.02</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>82528.32000000001</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>81925.75999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>281730.16</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>52189.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>52658.03</v>
+      </c>
       <c r="D17" t="n">
-        <v>263330.22</v>
+        <v>53603.08</v>
       </c>
       <c r="E17" t="n">
-        <v>260438.59</v>
+        <v>52693.15</v>
       </c>
       <c r="F17" t="n">
-        <v>261200.32</v>
+        <v>52132.55</v>
       </c>
       <c r="G17" t="n">
-        <v>261066.59</v>
+        <v>52224.51</v>
       </c>
       <c r="H17" t="n">
-        <v>261092.15</v>
+        <v>52639.43</v>
       </c>
       <c r="I17" t="n">
-        <v>260870.75</v>
+        <v>52278.73</v>
       </c>
       <c r="J17" t="n">
-        <v>260824.16</v>
+        <v>52197.18</v>
       </c>
       <c r="K17" t="n">
-        <v>260737.62</v>
+        <v>52202.37</v>
       </c>
       <c r="L17" t="n">
-        <v>260864.94</v>
+        <v>52545.44</v>
       </c>
       <c r="M17" t="n">
-        <v>260632.13</v>
+        <v>52385.7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>52475.44</v>
+      </c>
+      <c r="O17" t="n">
+        <v>52655.02</v>
+      </c>
+      <c r="P17" t="n">
+        <v>52673.36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>52079.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>52369.68</v>
+      </c>
+      <c r="S17" t="n">
+        <v>52103.07</v>
+      </c>
+      <c r="T17" t="n">
+        <v>67668.96000000001</v>
+      </c>
+      <c r="U17" t="n">
+        <v>67422.11</v>
+      </c>
+      <c r="V17" t="n">
+        <v>66955.46000000001</v>
+      </c>
+      <c r="W17" t="n">
+        <v>67527.64999999999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>67541.74000000001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>67351.64999999999</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>67212.02</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>67107.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14993.7</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>260632.13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>260117.32</v>
+      </c>
       <c r="D18" t="n">
-        <v>16182.92</v>
+        <v>266230.88</v>
       </c>
       <c r="E18" t="n">
-        <v>16025.4</v>
+        <v>261296.01</v>
       </c>
       <c r="F18" t="n">
-        <v>15748.17</v>
+        <v>240537.51</v>
       </c>
       <c r="G18" t="n">
-        <v>15401.92</v>
+        <v>221751.43</v>
       </c>
       <c r="H18" t="n">
-        <v>15062.04</v>
+        <v>222178.57</v>
       </c>
       <c r="I18" t="n">
-        <v>15533.79</v>
+        <v>222052.35</v>
       </c>
       <c r="J18" t="n">
-        <v>15130.15</v>
+        <v>221507.62</v>
       </c>
       <c r="K18" t="n">
-        <v>16109.63</v>
+        <v>222009.42</v>
       </c>
       <c r="L18" t="n">
-        <v>15013.05</v>
+        <v>221714.19</v>
       </c>
       <c r="M18" t="n">
-        <v>15790.61</v>
+        <v>221803.77</v>
+      </c>
+      <c r="N18" t="n">
+        <v>112259.66</v>
+      </c>
+      <c r="O18" t="n">
+        <v>112911.71</v>
+      </c>
+      <c r="P18" t="n">
+        <v>112981.05</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>112057.31</v>
+      </c>
+      <c r="R18" t="n">
+        <v>113133.87</v>
+      </c>
+      <c r="S18" t="n">
+        <v>112759.84</v>
+      </c>
+      <c r="T18" t="n">
+        <v>113197.24</v>
+      </c>
+      <c r="U18" t="n">
+        <v>112196.69</v>
+      </c>
+      <c r="V18" t="n">
+        <v>112468.31</v>
+      </c>
+      <c r="W18" t="n">
+        <v>112014.03</v>
+      </c>
+      <c r="X18" t="n">
+        <v>112230.25</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>112999.65</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>113493.96</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>113003.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85623.34</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>15790.61</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15651.56</v>
+      </c>
       <c r="D19" t="n">
-        <v>85455.85000000001</v>
+        <v>16510.82</v>
       </c>
       <c r="E19" t="n">
-        <v>88670.83</v>
+        <v>16067.5</v>
       </c>
       <c r="F19" t="n">
-        <v>88823.83</v>
+        <v>15950.69</v>
       </c>
       <c r="G19" t="n">
-        <v>91182.07000000001</v>
+        <v>1016.69</v>
       </c>
       <c r="H19" t="n">
-        <v>91428.73</v>
+        <v>1087.19</v>
       </c>
       <c r="I19" t="n">
-        <v>91227.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>90922.13</v>
-      </c>
-      <c r="K19" t="n">
-        <v>83531.08</v>
-      </c>
-      <c r="L19" t="n">
-        <v>80782.25999999999</v>
-      </c>
-      <c r="M19" t="n">
-        <v>80764.67</v>
-      </c>
+        <v>983.45</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84223.53999999999</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>80764.67</v>
+      </c>
+      <c r="C20" t="n">
+        <v>80802.24000000001</v>
+      </c>
       <c r="D20" t="n">
-        <v>83644.95</v>
+        <v>83153.3</v>
       </c>
       <c r="E20" t="n">
-        <v>84041.56</v>
+        <v>80679.19</v>
       </c>
       <c r="F20" t="n">
-        <v>83641.81</v>
+        <v>80616.22</v>
       </c>
       <c r="G20" t="n">
-        <v>83748.97</v>
+        <v>84570.73</v>
       </c>
       <c r="H20" t="n">
-        <v>83817.92</v>
+        <v>84321.5</v>
       </c>
       <c r="I20" t="n">
-        <v>83870.86</v>
+        <v>90363.33</v>
       </c>
       <c r="J20" t="n">
-        <v>84140.42</v>
+        <v>93041.67999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>77204.50999999999</v>
+        <v>93505.05</v>
       </c>
       <c r="L20" t="n">
-        <v>77081.98</v>
+        <v>93585.87</v>
       </c>
       <c r="M20" t="n">
-        <v>76839.92999999999</v>
+        <v>93029.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>93242.02</v>
+      </c>
+      <c r="O20" t="n">
+        <v>97739.84</v>
+      </c>
+      <c r="P20" t="n">
+        <v>102356.42</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>106691.83</v>
+      </c>
+      <c r="R20" t="n">
+        <v>108829.04</v>
+      </c>
+      <c r="S20" t="n">
+        <v>108865.95</v>
+      </c>
+      <c r="T20" t="n">
+        <v>109043.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>108777.55</v>
+      </c>
+      <c r="V20" t="n">
+        <v>113177.86</v>
+      </c>
+      <c r="W20" t="n">
+        <v>117584.3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>123869.75</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>116630.14</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>123753.73</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>115616.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>543283.66</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>76839.92999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>76747.88</v>
+      </c>
       <c r="D21" t="n">
-        <v>563957.96</v>
+        <v>79130.28999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>630396.21</v>
+        <v>77350.88</v>
       </c>
       <c r="F21" t="n">
-        <v>624578.16</v>
+        <v>77359.39</v>
       </c>
       <c r="G21" t="n">
-        <v>623635.3</v>
+        <v>77187.14</v>
       </c>
       <c r="H21" t="n">
-        <v>624270.58</v>
+        <v>80575.03</v>
       </c>
       <c r="I21" t="n">
-        <v>616904.14</v>
+        <v>83798.23</v>
       </c>
       <c r="J21" t="n">
-        <v>601507.99</v>
+        <v>89341.19</v>
       </c>
       <c r="K21" t="n">
-        <v>529055.86</v>
+        <v>91486.28</v>
       </c>
       <c r="L21" t="n">
-        <v>494312.86</v>
+        <v>91606.74000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>483791.34</v>
+        <v>91398.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>91579.23</v>
+      </c>
+      <c r="O21" t="n">
+        <v>97472.44</v>
+      </c>
+      <c r="P21" t="n">
+        <v>101049.04</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>103675.61</v>
+      </c>
+      <c r="R21" t="n">
+        <v>104165.98</v>
+      </c>
+      <c r="S21" t="n">
+        <v>103861.96</v>
+      </c>
+      <c r="T21" t="n">
+        <v>103609.46</v>
+      </c>
+      <c r="U21" t="n">
+        <v>103348.61</v>
+      </c>
+      <c r="V21" t="n">
+        <v>103307.73</v>
+      </c>
+      <c r="W21" t="n">
+        <v>108089.68</v>
+      </c>
+      <c r="X21" t="n">
+        <v>108303.97</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>108029.35</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>116439.92</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>111950.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109272.56</v>
+        <v>483791.34</v>
       </c>
       <c r="C22" t="n">
-        <v>109035.91</v>
+        <v>473467.11</v>
       </c>
       <c r="D22" t="n">
-        <v>108962.1</v>
+        <v>482879.94</v>
       </c>
       <c r="E22" t="n">
-        <v>109328.1</v>
+        <v>477098.69</v>
       </c>
       <c r="F22" t="n">
-        <v>109170.21</v>
+        <v>508787.79</v>
       </c>
       <c r="G22" t="n">
-        <v>109371.55</v>
+        <v>546483.3100000001</v>
       </c>
       <c r="H22" t="n">
-        <v>108947.23</v>
+        <v>537556.74</v>
       </c>
       <c r="I22" t="n">
-        <v>109531.03</v>
+        <v>582502.95</v>
       </c>
       <c r="J22" t="n">
-        <v>108937.67</v>
+        <v>647280.64</v>
       </c>
       <c r="K22" t="n">
-        <v>109293.4</v>
+        <v>660716.65</v>
       </c>
       <c r="L22" t="n">
-        <v>109446.95</v>
+        <v>676593.0600000001</v>
       </c>
       <c r="M22" t="n">
-        <v>108811.32</v>
+        <v>702616.41</v>
+      </c>
+      <c r="N22" t="n">
+        <v>697037.72</v>
+      </c>
+      <c r="O22" t="n">
+        <v>719412.78</v>
+      </c>
+      <c r="P22" t="n">
+        <v>733624.28</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>773953.09</v>
+      </c>
+      <c r="R22" t="n">
+        <v>800964.27</v>
+      </c>
+      <c r="S22" t="n">
+        <v>752248.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>741329.51</v>
+      </c>
+      <c r="U22" t="n">
+        <v>766767.3199999999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>807199.99</v>
+      </c>
+      <c r="W22" t="n">
+        <v>827251.75</v>
+      </c>
+      <c r="X22" t="n">
+        <v>863736.75</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>832463.33</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>868256.4399999999</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>798985.73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171937.25</v>
+        <v>108811.32</v>
       </c>
       <c r="C23" t="n">
-        <v>171878.09</v>
+        <v>106070.43</v>
       </c>
       <c r="D23" t="n">
-        <v>142182.1</v>
+        <v>108545.6</v>
       </c>
       <c r="E23" t="n">
-        <v>141906.13</v>
+        <v>101381.64</v>
       </c>
       <c r="F23" t="n">
-        <v>142038.74</v>
+        <v>104429.58</v>
       </c>
       <c r="G23" t="n">
-        <v>142086.12</v>
+        <v>111327.4</v>
       </c>
       <c r="H23" t="n">
-        <v>202071.64</v>
+        <v>110813.61</v>
       </c>
       <c r="I23" t="n">
-        <v>202077.61</v>
+        <v>130295.89</v>
       </c>
       <c r="J23" t="n">
-        <v>201954.47</v>
+        <v>137052.32</v>
       </c>
       <c r="K23" t="n">
-        <v>202046.23</v>
+        <v>136801.39</v>
       </c>
       <c r="L23" t="n">
-        <v>202163.93</v>
+        <v>136962.95</v>
       </c>
       <c r="M23" t="n">
-        <v>201935.94</v>
+        <v>136936.47</v>
+      </c>
+      <c r="N23" t="n">
+        <v>137253.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>136880.52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>148447.8</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>149708.65</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149738.86</v>
+      </c>
+      <c r="S23" t="n">
+        <v>150085.42</v>
+      </c>
+      <c r="T23" t="n">
+        <v>150408.33</v>
+      </c>
+      <c r="U23" t="n">
+        <v>150737.01</v>
+      </c>
+      <c r="V23" t="n">
+        <v>156310.67</v>
+      </c>
+      <c r="W23" t="n">
+        <v>157417.79</v>
+      </c>
+      <c r="X23" t="n">
+        <v>159907.96</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>160326.73</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>167413.16</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>167377.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2176293.29</v>
+        <v>201935.94</v>
       </c>
       <c r="C24" t="n">
-        <v>2128678.99</v>
+        <v>201922.69</v>
       </c>
       <c r="D24" t="n">
-        <v>2125656.99</v>
+        <v>206727.67</v>
       </c>
       <c r="E24" t="n">
-        <v>2128070.89</v>
+        <v>202092.4</v>
       </c>
       <c r="F24" t="n">
-        <v>1949476.81</v>
+        <v>202116.84</v>
       </c>
       <c r="G24" t="n">
-        <v>1901068.39</v>
+        <v>202030.75</v>
       </c>
       <c r="H24" t="n">
-        <v>1899628.65</v>
+        <v>202137.18</v>
       </c>
       <c r="I24" t="n">
-        <v>1898800.17</v>
+        <v>201944.52</v>
       </c>
       <c r="J24" t="n">
-        <v>1700136.05</v>
+        <v>202127.49</v>
       </c>
       <c r="K24" t="n">
-        <v>1698360.68</v>
+        <v>201959.63</v>
       </c>
       <c r="L24" t="n">
-        <v>1698891.21</v>
+        <v>201929</v>
       </c>
       <c r="M24" t="n">
-        <v>1701309.96</v>
+        <v>201985.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>202172.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>202017.79</v>
+      </c>
+      <c r="P24" t="n">
+        <v>201942.37</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>201884.53</v>
+      </c>
+      <c r="R24" t="n">
+        <v>202074.09</v>
+      </c>
+      <c r="S24" t="n">
+        <v>202182.01</v>
+      </c>
+      <c r="T24" t="n">
+        <v>202186.72</v>
+      </c>
+      <c r="U24" t="n">
+        <v>202028.29</v>
+      </c>
+      <c r="V24" t="n">
+        <v>201998.48</v>
+      </c>
+      <c r="W24" t="n">
+        <v>202002.37</v>
+      </c>
+      <c r="X24" t="n">
+        <v>202020.11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>201922.78</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>202066.17</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>202186.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15344.86</v>
+        <v>1701309.96</v>
       </c>
       <c r="C25" t="n">
-        <v>15357.3</v>
+        <v>1700061.53</v>
       </c>
       <c r="D25" t="n">
-        <v>12353.54</v>
+        <v>1739091.15</v>
       </c>
       <c r="E25" t="n">
-        <v>12313.98</v>
+        <v>1699745.63</v>
       </c>
       <c r="F25" t="n">
-        <v>12308.22</v>
+        <v>1700707.84</v>
       </c>
       <c r="G25" t="n">
-        <v>12276.17</v>
+        <v>1698590.31</v>
       </c>
       <c r="H25" t="n">
-        <v>12304.56</v>
+        <v>1700322.81</v>
       </c>
       <c r="I25" t="n">
-        <v>12302.13</v>
+        <v>1701070.14</v>
       </c>
       <c r="J25" t="n">
-        <v>12337.05</v>
+        <v>1499695.45</v>
       </c>
       <c r="K25" t="n">
-        <v>12351.4</v>
+        <v>1501157.89</v>
       </c>
       <c r="L25" t="n">
-        <v>12356.92</v>
+        <v>1498646.28</v>
       </c>
       <c r="M25" t="n">
-        <v>12332.89</v>
-      </c>
+        <v>1451455.67</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1349573.35</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1351608.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1217135.43</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>54339.39</v>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>207.54</v>
+        <v>12332.89</v>
       </c>
       <c r="C26" t="n">
-        <v>209.95</v>
+        <v>12327.64</v>
       </c>
       <c r="D26" t="n">
-        <v>214.72</v>
+        <v>12582.31</v>
       </c>
       <c r="E26" t="n">
-        <v>210.16</v>
+        <v>12360.6</v>
       </c>
       <c r="F26" t="n">
-        <v>190.72</v>
+        <v>12323.27</v>
       </c>
       <c r="G26" t="n">
-        <v>209.01</v>
+        <v>12330.04</v>
       </c>
       <c r="H26" t="n">
-        <v>193.43</v>
+        <v>12322.82</v>
       </c>
       <c r="I26" t="n">
-        <v>198.45</v>
+        <v>12309.38</v>
       </c>
       <c r="J26" t="n">
-        <v>196.15</v>
+        <v>12288.19</v>
       </c>
       <c r="K26" t="n">
-        <v>185.23</v>
+        <v>17334.21</v>
       </c>
       <c r="L26" t="n">
-        <v>216.06</v>
+        <v>17322.43</v>
       </c>
       <c r="M26" t="n">
-        <v>207.72</v>
+        <v>10305.92</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10287.34</v>
+      </c>
+      <c r="O26" t="n">
+        <v>10269.69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10340.31</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>10287.48</v>
+      </c>
+      <c r="R26" t="n">
+        <v>10344.1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10318.73</v>
+      </c>
+      <c r="T26" t="n">
+        <v>10298.81</v>
+      </c>
+      <c r="U26" t="n">
+        <v>10267.51</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10394.07</v>
+      </c>
+      <c r="W26" t="n">
+        <v>10372.1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10339.04</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10232.2</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10274.42</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>10397.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>85120.96000000001</v>
+        <v>207.72</v>
       </c>
       <c r="C27" t="n">
-        <v>85281.75999999999</v>
+        <v>183.31</v>
       </c>
       <c r="D27" t="n">
-        <v>78108.13</v>
+        <v>222.4</v>
       </c>
       <c r="E27" t="n">
-        <v>77839.28999999999</v>
+        <v>209.58</v>
       </c>
       <c r="F27" t="n">
-        <v>73093.5</v>
+        <v>206.64</v>
       </c>
       <c r="G27" t="n">
-        <v>70925.27</v>
+        <v>200.87</v>
       </c>
       <c r="H27" t="n">
-        <v>74109.75999999999</v>
+        <v>208.21</v>
       </c>
       <c r="I27" t="n">
-        <v>65393.38</v>
+        <v>196.46</v>
       </c>
       <c r="J27" t="n">
-        <v>65527.59</v>
+        <v>202.39</v>
       </c>
       <c r="K27" t="n">
-        <v>62183.13</v>
+        <v>203.77</v>
       </c>
       <c r="L27" t="n">
-        <v>52189.51</v>
+        <v>212.18</v>
       </c>
       <c r="M27" t="n">
-        <v>52045.21</v>
+        <v>202.9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>189.73</v>
+      </c>
+      <c r="O27" t="n">
+        <v>214.77</v>
+      </c>
+      <c r="P27" t="n">
+        <v>194.33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>219.32</v>
+      </c>
+      <c r="R27" t="n">
+        <v>210.12</v>
+      </c>
+      <c r="S27" t="n">
+        <v>208.62</v>
+      </c>
+      <c r="T27" t="n">
+        <v>219.46</v>
+      </c>
+      <c r="U27" t="n">
+        <v>191.89</v>
+      </c>
+      <c r="V27" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="W27" t="n">
+        <v>190.44</v>
+      </c>
+      <c r="X27" t="n">
+        <v>200.86</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>189.12</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>191.41</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>194.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>246682.29</v>
+        <v>52045.21</v>
       </c>
       <c r="C28" t="n">
-        <v>246972.87</v>
+        <v>47000.45</v>
       </c>
       <c r="D28" t="n">
-        <v>196486.76</v>
+        <v>48017.84</v>
       </c>
       <c r="E28" t="n">
-        <v>196984.82</v>
+        <v>56944.72</v>
       </c>
       <c r="F28" t="n">
-        <v>196677.13</v>
+        <v>57069.45</v>
       </c>
       <c r="G28" t="n">
-        <v>196875.64</v>
+        <v>59181.3</v>
       </c>
       <c r="H28" t="n">
-        <v>196689.55</v>
+        <v>58978.46</v>
       </c>
       <c r="I28" t="n">
-        <v>196527.92</v>
+        <v>59131.71</v>
       </c>
       <c r="J28" t="n">
-        <v>192092.94</v>
+        <v>58961.34</v>
       </c>
       <c r="K28" t="n">
-        <v>191998.89</v>
+        <v>59045.19</v>
       </c>
       <c r="L28" t="n">
-        <v>176264.56</v>
+        <v>58997.62</v>
       </c>
       <c r="M28" t="n">
-        <v>176414.37</v>
+        <v>59100.77</v>
+      </c>
+      <c r="N28" t="n">
+        <v>58916.28</v>
+      </c>
+      <c r="O28" t="n">
+        <v>59174.1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>58907.51</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>64047.05</v>
+      </c>
+      <c r="R28" t="n">
+        <v>63948.63</v>
+      </c>
+      <c r="S28" t="n">
+        <v>63974.42</v>
+      </c>
+      <c r="T28" t="n">
+        <v>63927.13</v>
+      </c>
+      <c r="U28" t="n">
+        <v>58906.31</v>
+      </c>
+      <c r="V28" t="n">
+        <v>63992.29</v>
+      </c>
+      <c r="W28" t="n">
+        <v>64122.09</v>
+      </c>
+      <c r="X28" t="n">
+        <v>68812.82000000001</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>68884.78</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>49144.8</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>49039.35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13156.36</v>
+        <v>176414.37</v>
       </c>
       <c r="C29" t="n">
-        <v>13822.98</v>
+        <v>176170.35</v>
       </c>
       <c r="D29" t="n">
-        <v>17669.17</v>
+        <v>180420.72</v>
       </c>
       <c r="E29" t="n">
-        <v>18493.48</v>
+        <v>176018.14</v>
       </c>
       <c r="F29" t="n">
-        <v>18342.92</v>
+        <v>176012.25</v>
       </c>
       <c r="G29" t="n">
-        <v>18257.18</v>
+        <v>184290.27</v>
       </c>
       <c r="H29" t="n">
-        <v>21843.78</v>
+        <v>179400.31</v>
       </c>
       <c r="I29" t="n">
-        <v>21841.39</v>
+        <v>179442.23</v>
       </c>
       <c r="J29" t="n">
-        <v>21849.16</v>
+        <v>179164.21</v>
       </c>
       <c r="K29" t="n">
-        <v>21721.54</v>
+        <v>179020.06</v>
       </c>
       <c r="L29" t="n">
-        <v>21537.56</v>
+        <v>179374.64</v>
       </c>
       <c r="M29" t="n">
-        <v>18975.35</v>
+        <v>163968.14</v>
+      </c>
+      <c r="N29" t="n">
+        <v>164555.69</v>
+      </c>
+      <c r="O29" t="n">
+        <v>174445.66</v>
+      </c>
+      <c r="P29" t="n">
+        <v>173965.92</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>174218.25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>174238.89</v>
+      </c>
+      <c r="S29" t="n">
+        <v>174294.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>164423.34</v>
+      </c>
+      <c r="U29" t="n">
+        <v>164258.07</v>
+      </c>
+      <c r="V29" t="n">
+        <v>179053.12</v>
+      </c>
+      <c r="W29" t="n">
+        <v>179000.23</v>
+      </c>
+      <c r="X29" t="n">
+        <v>179185.39</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>169338.34</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>134249.58</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>133991.74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1515.67</v>
+        <v>18975.35</v>
       </c>
       <c r="C30" t="n">
-        <v>1523.69</v>
+        <v>18968.66</v>
       </c>
       <c r="D30" t="n">
-        <v>1779.92</v>
+        <v>18902.51</v>
       </c>
       <c r="E30" t="n">
-        <v>1774.15</v>
+        <v>18372.39</v>
       </c>
       <c r="F30" t="n">
-        <v>1782.04</v>
+        <v>18634.31</v>
       </c>
       <c r="G30" t="n">
-        <v>1779.16</v>
+        <v>19845.96</v>
       </c>
       <c r="H30" t="n">
-        <v>1771.85</v>
+        <v>20323.08</v>
       </c>
       <c r="I30" t="n">
-        <v>1770.44</v>
+        <v>21005.08</v>
       </c>
       <c r="J30" t="n">
-        <v>1772.34</v>
+        <v>21440.54</v>
       </c>
       <c r="K30" t="n">
-        <v>1780.13</v>
+        <v>22601.66</v>
       </c>
       <c r="L30" t="n">
-        <v>1768.09</v>
+        <v>22626.61</v>
       </c>
       <c r="M30" t="n">
-        <v>1766.03</v>
+        <v>26168.64</v>
+      </c>
+      <c r="N30" t="n">
+        <v>26246.47</v>
+      </c>
+      <c r="O30" t="n">
+        <v>26793.65</v>
+      </c>
+      <c r="P30" t="n">
+        <v>27376.65</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>27500.65</v>
+      </c>
+      <c r="R30" t="n">
+        <v>27515</v>
+      </c>
+      <c r="S30" t="n">
+        <v>27556.47</v>
+      </c>
+      <c r="T30" t="n">
+        <v>23767.46</v>
+      </c>
+      <c r="U30" t="n">
+        <v>20902.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>20351.9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>20036.14</v>
+      </c>
+      <c r="X30" t="n">
+        <v>20937.13</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>17216.8</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>18893.06</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>18690.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8237.93</v>
+        <v>1766.03</v>
       </c>
       <c r="C31" t="n">
-        <v>8365.32</v>
+        <v>1689.66</v>
       </c>
       <c r="D31" t="n">
-        <v>8254.389999999999</v>
+        <v>1724.27</v>
       </c>
       <c r="E31" t="n">
-        <v>12904.01</v>
+        <v>1674.26</v>
       </c>
       <c r="F31" t="n">
-        <v>12935.87</v>
+        <v>1688.57</v>
       </c>
       <c r="G31" t="n">
-        <v>12844.11</v>
+        <v>1688.44</v>
       </c>
       <c r="H31" t="n">
-        <v>12872.22</v>
+        <v>1680.01</v>
       </c>
       <c r="I31" t="n">
-        <v>12946.63</v>
+        <v>1684.45</v>
       </c>
       <c r="J31" t="n">
-        <v>10648.04</v>
+        <v>1680.26</v>
       </c>
       <c r="K31" t="n">
-        <v>10740.69</v>
+        <v>1678.49</v>
       </c>
       <c r="L31" t="n">
-        <v>10837.76</v>
+        <v>1684.33</v>
       </c>
       <c r="M31" t="n">
-        <v>10785.2</v>
+        <v>1676.39</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1688.93</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1683.06</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1679.87</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1680.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1678.47</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1682.57</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1679.46</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1678.28</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1685.08</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1675.7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1594.75</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1596.8</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1587.94</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1595.72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5651.52</v>
+        <v>10785.2</v>
       </c>
       <c r="C32" t="n">
-        <v>5755.53</v>
+        <v>10630.38</v>
       </c>
       <c r="D32" t="n">
-        <v>5757.71</v>
+        <v>10999.77</v>
       </c>
       <c r="E32" t="n">
-        <v>5724.26</v>
+        <v>10723.46</v>
       </c>
       <c r="F32" t="n">
-        <v>5687.61</v>
+        <v>10649.5</v>
       </c>
       <c r="G32" t="n">
-        <v>5660.52</v>
+        <v>10699.56</v>
       </c>
       <c r="H32" t="n">
-        <v>5694.02</v>
+        <v>10743.67</v>
       </c>
       <c r="I32" t="n">
-        <v>5652.74</v>
+        <v>16990.66</v>
       </c>
       <c r="J32" t="n">
-        <v>5690.18</v>
+        <v>19750.95</v>
       </c>
       <c r="K32" t="n">
-        <v>5668.11</v>
+        <v>19675.02</v>
       </c>
       <c r="L32" t="n">
-        <v>5688.93</v>
+        <v>23968.38</v>
       </c>
       <c r="M32" t="n">
-        <v>5672.71</v>
+        <v>33988.12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>28942.04</v>
+      </c>
+      <c r="O32" t="n">
+        <v>28981.37</v>
+      </c>
+      <c r="P32" t="n">
+        <v>29116.51</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>29094.81</v>
+      </c>
+      <c r="R32" t="n">
+        <v>28976.87</v>
+      </c>
+      <c r="S32" t="n">
+        <v>29050.72</v>
+      </c>
+      <c r="T32" t="n">
+        <v>29024.13</v>
+      </c>
+      <c r="U32" t="n">
+        <v>28210.52</v>
+      </c>
+      <c r="V32" t="n">
+        <v>28345.08</v>
+      </c>
+      <c r="W32" t="n">
+        <v>28264.13</v>
+      </c>
+      <c r="X32" t="n">
+        <v>28357.46</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>28218.96</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>28231.1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>28620.89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11156.19</v>
+        <v>5672.71</v>
       </c>
       <c r="C33" t="n">
-        <v>11149.77</v>
+        <v>5739.04</v>
       </c>
       <c r="D33" t="n">
-        <v>11128.7</v>
+        <v>5777.3</v>
       </c>
       <c r="E33" t="n">
-        <v>11126.37</v>
+        <v>5671.12</v>
       </c>
       <c r="F33" t="n">
-        <v>9254.129999999999</v>
+        <v>5699.48</v>
       </c>
       <c r="G33" t="n">
-        <v>9328.51</v>
+        <v>5713.18</v>
       </c>
       <c r="H33" t="n">
-        <v>9285.51</v>
+        <v>5663.92</v>
       </c>
       <c r="I33" t="n">
-        <v>9268.23</v>
+        <v>5721.81</v>
       </c>
       <c r="J33" t="n">
-        <v>9286.690000000001</v>
+        <v>5645.75</v>
       </c>
       <c r="K33" t="n">
-        <v>9248.67</v>
+        <v>5721.9</v>
       </c>
       <c r="L33" t="n">
-        <v>9236.809999999999</v>
+        <v>5693.42</v>
       </c>
       <c r="M33" t="n">
-        <v>9331.18</v>
+        <v>5665.84</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5629.58</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5636.23</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5772.12</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5731.06</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5655.49</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5674.15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5627.82</v>
+      </c>
+      <c r="U33" t="n">
+        <v>19940.87</v>
+      </c>
+      <c r="V33" t="n">
+        <v>19913.83</v>
+      </c>
+      <c r="W33" t="n">
+        <v>19904.01</v>
+      </c>
+      <c r="X33" t="n">
+        <v>19906.79</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>19794.73</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>19901.24</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>19866.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80672.07000000001</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>9331.18</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9343.690000000001</v>
+      </c>
       <c r="D34" t="n">
-        <v>80650.71000000001</v>
+        <v>9447.68</v>
       </c>
       <c r="E34" t="n">
-        <v>80520.37</v>
+        <v>17837.76</v>
       </c>
       <c r="F34" t="n">
-        <v>80635.67999999999</v>
+        <v>17840.32</v>
       </c>
       <c r="G34" t="n">
-        <v>80573.66</v>
+        <v>17756.17</v>
       </c>
       <c r="H34" t="n">
-        <v>80821.64</v>
+        <v>27941.66</v>
       </c>
       <c r="I34" t="n">
-        <v>80699.92</v>
+        <v>28005.85</v>
       </c>
       <c r="J34" t="n">
-        <v>80722.99000000001</v>
+        <v>27993.27</v>
       </c>
       <c r="K34" t="n">
-        <v>80806</v>
+        <v>28007.04</v>
       </c>
       <c r="L34" t="n">
-        <v>80755.10000000001</v>
+        <v>27999.3</v>
       </c>
       <c r="M34" t="n">
-        <v>80850.17999999999</v>
+        <v>28035.29</v>
+      </c>
+      <c r="N34" t="n">
+        <v>28029.96</v>
+      </c>
+      <c r="O34" t="n">
+        <v>28024.81</v>
+      </c>
+      <c r="P34" t="n">
+        <v>28033.67</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>28002.76</v>
+      </c>
+      <c r="R34" t="n">
+        <v>14861.9</v>
+      </c>
+      <c r="S34" t="n">
+        <v>14898.89</v>
+      </c>
+      <c r="T34" t="n">
+        <v>14900.86</v>
+      </c>
+      <c r="U34" t="n">
+        <v>14902.38</v>
+      </c>
+      <c r="V34" t="n">
+        <v>14788.32</v>
+      </c>
+      <c r="W34" t="n">
+        <v>19173.93</v>
+      </c>
+      <c r="X34" t="n">
+        <v>19173.7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>19148.85</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>19151.19</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>19073.62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97188</v>
+        <v>80850.17999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>97435.21000000001</v>
+        <v>80708.91</v>
       </c>
       <c r="D35" t="n">
-        <v>96966.10000000001</v>
+        <v>82439.89</v>
       </c>
       <c r="E35" t="n">
-        <v>97026.5</v>
+        <v>80682.28999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>97516.52</v>
+        <v>80754.58</v>
       </c>
       <c r="G35" t="n">
-        <v>97194.83</v>
+        <v>80533.14999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>97128.85000000001</v>
+        <v>80673.36</v>
       </c>
       <c r="I35" t="n">
-        <v>97429.53</v>
+        <v>80532.06</v>
       </c>
       <c r="J35" t="n">
-        <v>97000.10000000001</v>
+        <v>80654.53</v>
       </c>
       <c r="K35" t="n">
-        <v>97207.05</v>
+        <v>80569.35000000001</v>
       </c>
       <c r="L35" t="n">
-        <v>97417.99000000001</v>
+        <v>80668.85000000001</v>
       </c>
       <c r="M35" t="n">
-        <v>97021.21000000001</v>
+        <v>80722.32000000001</v>
+      </c>
+      <c r="N35" t="n">
+        <v>80757.56</v>
+      </c>
+      <c r="O35" t="n">
+        <v>80591.60000000001</v>
+      </c>
+      <c r="P35" t="n">
+        <v>80600.94</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>80572.17</v>
+      </c>
+      <c r="R35" t="n">
+        <v>80788.52</v>
+      </c>
+      <c r="S35" t="n">
+        <v>80762.46000000001</v>
+      </c>
+      <c r="T35" t="n">
+        <v>80707.37</v>
+      </c>
+      <c r="U35" t="n">
+        <v>52419</v>
+      </c>
+      <c r="V35" t="n">
+        <v>30794.72</v>
+      </c>
+      <c r="W35" t="n">
+        <v>42653.64</v>
+      </c>
+      <c r="X35" t="n">
+        <v>53538.06</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>53462.06</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>53521.98</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>53283.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13909.42</v>
+        <v>97021.21000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>14034.81</v>
+        <v>97021.52</v>
       </c>
       <c r="D36" t="n">
-        <v>13924.2</v>
+        <v>99482.28999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>14005.69</v>
+        <v>97498.46000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>13920.84</v>
+        <v>96990.74000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>13978.5</v>
+        <v>97507.71000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>17083.92</v>
+        <v>97367.00999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>17023.38</v>
+        <v>97092.41</v>
       </c>
       <c r="J36" t="n">
-        <v>16997.81</v>
+        <v>97503.53999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>16079.53</v>
+        <v>97240.84</v>
       </c>
       <c r="L36" t="n">
-        <v>18902.23</v>
+        <v>97337.36</v>
       </c>
       <c r="M36" t="n">
-        <v>18865.63</v>
+        <v>97602.92</v>
+      </c>
+      <c r="N36" t="n">
+        <v>97223.58</v>
+      </c>
+      <c r="O36" t="n">
+        <v>97211.48</v>
+      </c>
+      <c r="P36" t="n">
+        <v>97474.75</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>97409</v>
+      </c>
+      <c r="R36" t="n">
+        <v>96833.96000000001</v>
+      </c>
+      <c r="S36" t="n">
+        <v>96807.89999999999</v>
+      </c>
+      <c r="T36" t="n">
+        <v>96613.41</v>
+      </c>
+      <c r="U36" t="n">
+        <v>97158.78999999999</v>
+      </c>
+      <c r="V36" t="n">
+        <v>97660.74000000001</v>
+      </c>
+      <c r="W36" t="n">
+        <v>97651.64</v>
+      </c>
+      <c r="X36" t="n">
+        <v>96831.25</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>97009.46000000001</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>97331.63</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>97049.84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35865.85</v>
+        <v>18865.63</v>
       </c>
       <c r="C37" t="n">
-        <v>35784.66</v>
+        <v>18979.61</v>
       </c>
       <c r="D37" t="n">
-        <v>35766.13</v>
+        <v>19538.21</v>
       </c>
       <c r="E37" t="n">
-        <v>35836.88</v>
+        <v>18876.06</v>
       </c>
       <c r="F37" t="n">
-        <v>35776.44</v>
+        <v>20481.8</v>
       </c>
       <c r="G37" t="n">
-        <v>35872.25</v>
+        <v>24443.62</v>
       </c>
       <c r="H37" t="n">
-        <v>35862.22</v>
+        <v>24427.85</v>
       </c>
       <c r="I37" t="n">
-        <v>35845.83</v>
+        <v>24531.63</v>
       </c>
       <c r="J37" t="n">
-        <v>35871.29</v>
+        <v>34586.26</v>
       </c>
       <c r="K37" t="n">
-        <v>35575.1</v>
+        <v>34426.73</v>
       </c>
       <c r="L37" t="n">
-        <v>35909.38</v>
+        <v>43908.21</v>
       </c>
       <c r="M37" t="n">
-        <v>35795.43</v>
+        <v>48960.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>49028.44</v>
+      </c>
+      <c r="O37" t="n">
+        <v>48959.32</v>
+      </c>
+      <c r="P37" t="n">
+        <v>44488.51</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>64840.11</v>
+      </c>
+      <c r="R37" t="n">
+        <v>65013.88</v>
+      </c>
+      <c r="S37" t="n">
+        <v>65124.15</v>
+      </c>
+      <c r="T37" t="n">
+        <v>64319.56</v>
+      </c>
+      <c r="U37" t="n">
+        <v>52877.58</v>
+      </c>
+      <c r="V37" t="n">
+        <v>53131</v>
+      </c>
+      <c r="W37" t="n">
+        <v>52883.41</v>
+      </c>
+      <c r="X37" t="n">
+        <v>46169.43</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>42803.42</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>47856.47</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>63030.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25897.3</v>
+        <v>35795.43</v>
       </c>
       <c r="C38" t="n">
-        <v>25903.55</v>
+        <v>35923.98</v>
       </c>
       <c r="D38" t="n">
-        <v>24428.18</v>
+        <v>36712.47</v>
       </c>
       <c r="E38" t="n">
-        <v>23961.16</v>
+        <v>108034.22</v>
       </c>
       <c r="F38" t="n">
-        <v>25869.09</v>
+        <v>108050.8</v>
       </c>
       <c r="G38" t="n">
-        <v>26062.75</v>
+        <v>107923.36</v>
       </c>
       <c r="H38" t="n">
-        <v>26082.98</v>
+        <v>107932.97</v>
       </c>
       <c r="I38" t="n">
-        <v>26081.09</v>
+        <v>107833</v>
       </c>
       <c r="J38" t="n">
-        <v>26115.68</v>
+        <v>107847.72</v>
       </c>
       <c r="K38" t="n">
-        <v>26079.83</v>
+        <v>107761.89</v>
       </c>
       <c r="L38" t="n">
-        <v>26239.08</v>
+        <v>107861.93</v>
       </c>
       <c r="M38" t="n">
-        <v>25555.56</v>
+        <v>107853.85</v>
+      </c>
+      <c r="N38" t="n">
+        <v>107860.45</v>
+      </c>
+      <c r="O38" t="n">
+        <v>94698.19</v>
+      </c>
+      <c r="P38" t="n">
+        <v>87146.82000000001</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>87238.31</v>
+      </c>
+      <c r="R38" t="n">
+        <v>47087.48</v>
+      </c>
+      <c r="S38" t="n">
+        <v>47136.57</v>
+      </c>
+      <c r="T38" t="n">
+        <v>47012.38</v>
+      </c>
+      <c r="U38" t="n">
+        <v>46958.23</v>
+      </c>
+      <c r="V38" t="n">
+        <v>46913.39</v>
+      </c>
+      <c r="W38" t="n">
+        <v>47151.47</v>
+      </c>
+      <c r="X38" t="n">
+        <v>47241.39</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>46906.97</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>63782.24</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>63910.94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>627484.72</v>
+        <v>25555.56</v>
       </c>
       <c r="C39" t="n">
-        <v>627541.64</v>
+        <v>24043.62</v>
       </c>
       <c r="D39" t="n">
-        <v>627578.8</v>
+        <v>24653.78</v>
       </c>
       <c r="E39" t="n">
-        <v>627146.88</v>
+        <v>24229.93</v>
       </c>
       <c r="F39" t="n">
-        <v>627328.22</v>
+        <v>23899.84</v>
       </c>
       <c r="G39" t="n">
-        <v>626928.58</v>
+        <v>26271.72</v>
       </c>
       <c r="H39" t="n">
-        <v>607379.1</v>
+        <v>26260.01</v>
       </c>
       <c r="I39" t="n">
-        <v>607932.61</v>
+        <v>26107.5</v>
       </c>
       <c r="J39" t="n">
-        <v>607555.87</v>
+        <v>26278.88</v>
       </c>
       <c r="K39" t="n">
-        <v>607912.47</v>
+        <v>26239.03</v>
       </c>
       <c r="L39" t="n">
-        <v>571348.4</v>
+        <v>25831.84</v>
       </c>
       <c r="M39" t="n">
-        <v>571787.83</v>
+        <v>24552.27</v>
+      </c>
+      <c r="N39" t="n">
+        <v>24238.59</v>
+      </c>
+      <c r="O39" t="n">
+        <v>24362.98</v>
+      </c>
+      <c r="P39" t="n">
+        <v>26044.39</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>25362.25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>25606.37</v>
+      </c>
+      <c r="S39" t="n">
+        <v>25422.22</v>
+      </c>
+      <c r="T39" t="n">
+        <v>27632.19</v>
+      </c>
+      <c r="U39" t="n">
+        <v>28041.46</v>
+      </c>
+      <c r="V39" t="n">
+        <v>27632.63</v>
+      </c>
+      <c r="W39" t="n">
+        <v>27420.54</v>
+      </c>
+      <c r="X39" t="n">
+        <v>30810.92</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>30827.75</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>30664.46</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>30814.96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144671</v>
+        <v>571787.83</v>
       </c>
       <c r="C40" t="n">
-        <v>146035.78</v>
+        <v>571737.74</v>
       </c>
       <c r="D40" t="n">
-        <v>144592.56</v>
+        <v>584216.39</v>
       </c>
       <c r="E40" t="n">
-        <v>157754.16</v>
+        <v>571948.39</v>
       </c>
       <c r="F40" t="n">
-        <v>156824.05</v>
+        <v>591304</v>
       </c>
       <c r="G40" t="n">
-        <v>157006.01</v>
+        <v>591626.88</v>
       </c>
       <c r="H40" t="n">
-        <v>156635.74</v>
+        <v>591731.3</v>
       </c>
       <c r="I40" t="n">
-        <v>155646.6</v>
+        <v>591920.77</v>
       </c>
       <c r="J40" t="n">
-        <v>156812.67</v>
+        <v>591400.5600000001</v>
       </c>
       <c r="K40" t="n">
-        <v>157193.28</v>
+        <v>591893.26</v>
       </c>
       <c r="L40" t="n">
-        <v>156123.55</v>
+        <v>591652.1899999999</v>
       </c>
       <c r="M40" t="n">
-        <v>156969.64</v>
+        <v>605157.89</v>
+      </c>
+      <c r="N40" t="n">
+        <v>605437.66</v>
+      </c>
+      <c r="O40" t="n">
+        <v>606112.63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>524534.66</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>524516.66</v>
+      </c>
+      <c r="R40" t="n">
+        <v>524960.86</v>
+      </c>
+      <c r="S40" t="n">
+        <v>524296.14</v>
+      </c>
+      <c r="T40" t="n">
+        <v>524046.18</v>
+      </c>
+      <c r="U40" t="n">
+        <v>508282.99</v>
+      </c>
+      <c r="V40" t="n">
+        <v>508833.9</v>
+      </c>
+      <c r="W40" t="n">
+        <v>508891.49</v>
+      </c>
+      <c r="X40" t="n">
+        <v>491274.99</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>478179.75</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>498526.14</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>499300.26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>867068.76</v>
+        <v>156969.64</v>
       </c>
       <c r="C41" t="n">
-        <v>866934.7</v>
+        <v>157380.77</v>
       </c>
       <c r="D41" t="n">
-        <v>884941.74</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+        <v>161058.24</v>
+      </c>
+      <c r="E41" t="n">
+        <v>157575.49</v>
+      </c>
+      <c r="F41" t="n">
+        <v>156462.42</v>
+      </c>
+      <c r="G41" t="n">
+        <v>156976.38</v>
+      </c>
+      <c r="H41" t="n">
+        <v>157231.36</v>
+      </c>
+      <c r="I41" t="n">
+        <v>157235.11</v>
+      </c>
+      <c r="J41" t="n">
+        <v>170749.1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>170604.49</v>
+      </c>
+      <c r="L41" t="n">
+        <v>171272.85</v>
+      </c>
+      <c r="M41" t="n">
+        <v>171122.91</v>
+      </c>
+      <c r="N41" t="n">
+        <v>193908.67</v>
+      </c>
+      <c r="O41" t="n">
+        <v>193759.71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>193330.65</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>193108.69</v>
+      </c>
+      <c r="R41" t="n">
+        <v>194207.51</v>
+      </c>
+      <c r="S41" t="n">
+        <v>192680.04</v>
+      </c>
+      <c r="T41" t="n">
+        <v>193744.79</v>
+      </c>
+      <c r="U41" t="n">
+        <v>192877.43</v>
+      </c>
+      <c r="V41" t="n">
+        <v>192746.97</v>
+      </c>
+      <c r="W41" t="n">
+        <v>194227.57</v>
+      </c>
+      <c r="X41" t="n">
+        <v>193390.92</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>194317.83</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>194215.25</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>194159.94</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2186,40 +3902,82 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1265925.81</v>
+        <v>1265018.75</v>
       </c>
       <c r="C42" t="n">
-        <v>1267114.6</v>
+        <v>1265083.97</v>
       </c>
       <c r="D42" t="n">
-        <v>1265721.43</v>
+        <v>1224910.18</v>
       </c>
       <c r="E42" t="n">
-        <v>1267389.53</v>
+        <v>975961.91</v>
       </c>
       <c r="F42" t="n">
-        <v>1265016.54</v>
+        <v>924522.29</v>
       </c>
       <c r="G42" t="n">
-        <v>1265288.12</v>
+        <v>925416.4399999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1265217.48</v>
+        <v>926041.49</v>
       </c>
       <c r="I42" t="n">
-        <v>1266216.94</v>
+        <v>926060.1899999999</v>
       </c>
       <c r="J42" t="n">
-        <v>1265931.6</v>
+        <v>925282.67</v>
       </c>
       <c r="K42" t="n">
-        <v>1266610.38</v>
+        <v>924787.26</v>
       </c>
       <c r="L42" t="n">
-        <v>1264914.29</v>
+        <v>925766.3</v>
       </c>
       <c r="M42" t="n">
-        <v>1265018.75</v>
+        <v>925860.48</v>
+      </c>
+      <c r="N42" t="n">
+        <v>924324.04</v>
+      </c>
+      <c r="O42" t="n">
+        <v>924015.45</v>
+      </c>
+      <c r="P42" t="n">
+        <v>926569.48</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1072891.25</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1139398.72</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1142286.27</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1139781.26</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1140309.75</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1140636.79</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1141148.55</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1138365.91</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1138819.37</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1142261.84</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1138672.05</v>
       </c>
     </row>
     <row r="43">
@@ -2229,40 +3987,82 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53884.9</v>
+        <v>54013.51</v>
       </c>
       <c r="C43" t="n">
-        <v>53940.11</v>
+        <v>53920.09</v>
       </c>
       <c r="D43" t="n">
-        <v>53859.2</v>
+        <v>55230.04</v>
       </c>
       <c r="E43" t="n">
-        <v>54008.9</v>
+        <v>53857.52</v>
       </c>
       <c r="F43" t="n">
-        <v>53973.67</v>
+        <v>53902.73</v>
       </c>
       <c r="G43" t="n">
-        <v>53933.62</v>
+        <v>61657.25</v>
       </c>
       <c r="H43" t="n">
-        <v>54001.8</v>
+        <v>61678.62</v>
       </c>
       <c r="I43" t="n">
-        <v>53904.25</v>
+        <v>61599.22</v>
       </c>
       <c r="J43" t="n">
-        <v>54002.58</v>
+        <v>61600.73</v>
       </c>
       <c r="K43" t="n">
-        <v>53915.63</v>
+        <v>61665.14</v>
       </c>
       <c r="L43" t="n">
-        <v>53925.52</v>
+        <v>61691.57</v>
       </c>
       <c r="M43" t="n">
-        <v>54013.51</v>
+        <v>61681.13</v>
+      </c>
+      <c r="N43" t="n">
+        <v>61554.4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>61564.42</v>
+      </c>
+      <c r="P43" t="n">
+        <v>61669.2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>61698.69</v>
+      </c>
+      <c r="R43" t="n">
+        <v>61637.85</v>
+      </c>
+      <c r="S43" t="n">
+        <v>61694.77</v>
+      </c>
+      <c r="T43" t="n">
+        <v>61129.12</v>
+      </c>
+      <c r="U43" t="n">
+        <v>61697.11</v>
+      </c>
+      <c r="V43" t="n">
+        <v>61531.25</v>
+      </c>
+      <c r="W43" t="n">
+        <v>61600.45</v>
+      </c>
+      <c r="X43" t="n">
+        <v>61655.84</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>61604.62</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>61583.19</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>61707.75</v>
       </c>
     </row>
     <row r="44">
@@ -2272,40 +4072,82 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255461.89</v>
+        <v>222581.39</v>
       </c>
       <c r="C44" t="n">
-        <v>283031.79</v>
+        <v>221908.1</v>
       </c>
       <c r="D44" t="n">
-        <v>253276.3</v>
+        <v>224333.36</v>
       </c>
       <c r="E44" t="n">
-        <v>240487.18</v>
+        <v>215643.44</v>
       </c>
       <c r="F44" t="n">
-        <v>236084.43</v>
+        <v>215617.62</v>
       </c>
       <c r="G44" t="n">
-        <v>234775.59</v>
+        <v>216923.01</v>
       </c>
       <c r="H44" t="n">
-        <v>236192.73</v>
+        <v>216866.69</v>
       </c>
       <c r="I44" t="n">
-        <v>234443.24</v>
+        <v>213948.6</v>
       </c>
       <c r="J44" t="n">
-        <v>228729.3</v>
+        <v>218182.77</v>
       </c>
       <c r="K44" t="n">
-        <v>226448.39</v>
+        <v>217580.81</v>
       </c>
       <c r="L44" t="n">
-        <v>222847.96</v>
+        <v>218499.89</v>
       </c>
       <c r="M44" t="n">
-        <v>222581.39</v>
+        <v>218320.09</v>
+      </c>
+      <c r="N44" t="n">
+        <v>213669.45</v>
+      </c>
+      <c r="O44" t="n">
+        <v>215313.93</v>
+      </c>
+      <c r="P44" t="n">
+        <v>211790.86</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>184301.3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>189566.63</v>
+      </c>
+      <c r="S44" t="n">
+        <v>188916.39</v>
+      </c>
+      <c r="T44" t="n">
+        <v>187631.65</v>
+      </c>
+      <c r="U44" t="n">
+        <v>187733.63</v>
+      </c>
+      <c r="V44" t="n">
+        <v>190694.17</v>
+      </c>
+      <c r="W44" t="n">
+        <v>192061.55</v>
+      </c>
+      <c r="X44" t="n">
+        <v>193227.46</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>189688.83</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>187461.99</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>184519.87</v>
       </c>
     </row>
     <row r="45">
@@ -2315,40 +4157,82 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10729399.19</v>
+        <v>9125837.140000001</v>
       </c>
       <c r="C45" t="n">
-        <v>9340049.189999999</v>
+        <v>9098232.18</v>
       </c>
       <c r="D45" t="n">
-        <v>10637604.56</v>
+        <v>9197667.68</v>
       </c>
       <c r="E45" t="n">
-        <v>9859974.52</v>
+        <v>8841381.15</v>
       </c>
       <c r="F45" t="n">
-        <v>9679461.77</v>
+        <v>8840322.380000001</v>
       </c>
       <c r="G45" t="n">
-        <v>9625799.210000001</v>
+        <v>8893843.41</v>
       </c>
       <c r="H45" t="n">
-        <v>9683901.859999999</v>
+        <v>8891534.310000001</v>
       </c>
       <c r="I45" t="n">
-        <v>9612172.73</v>
+        <v>8985841.27</v>
       </c>
       <c r="J45" t="n">
-        <v>9377901.140000001</v>
+        <v>8945493.699999999</v>
       </c>
       <c r="K45" t="n">
-        <v>9284383.949999999</v>
+        <v>8920813.34</v>
       </c>
       <c r="L45" t="n">
-        <v>9136766.220000001</v>
+        <v>8958495.59</v>
       </c>
       <c r="M45" t="n">
-        <v>9125837.140000001</v>
+        <v>8951123.789999999</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8760447.51</v>
+      </c>
+      <c r="O45" t="n">
+        <v>8827870.970000001</v>
+      </c>
+      <c r="P45" t="n">
+        <v>8683425.18</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>7556353.26</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7582665.21</v>
+      </c>
+      <c r="S45" t="n">
+        <v>7556655.77</v>
+      </c>
+      <c r="T45" t="n">
+        <v>7505265.87</v>
+      </c>
+      <c r="U45" t="n">
+        <v>7509345.08</v>
+      </c>
+      <c r="V45" t="n">
+        <v>7627766.98</v>
+      </c>
+      <c r="W45" t="n">
+        <v>7682461.87</v>
+      </c>
+      <c r="X45" t="n">
+        <v>7729098.25</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>7587553.31</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>7498479.73</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7380794.82</v>
       </c>
     </row>
   </sheetData>
